--- a/NURSERY/Formative Assessment -4_class_Nursery.xlsx
+++ b/NURSERY/Formative Assessment -4_class_Nursery.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>Academic session</t>
   </si>
@@ -59,7 +59,7 @@
     <t>Result</t>
   </si>
   <si>
-    <t>2022-2023</t>
+    <t>2023-2024</t>
   </si>
   <si>
     <t>Formative Assessment -4</t>
@@ -68,7 +68,7 @@
     <t>Offline</t>
   </si>
   <si>
-    <t>Oral Maths</t>
+    <t>Rhymes</t>
   </si>
   <si>
     <t>Evaluating</t>
@@ -77,7 +77,7 @@
     <t>0 %</t>
   </si>
   <si>
-    <t>Anshuman Boro</t>
+    <t>Arman Ali</t>
   </si>
   <si>
     <t>Nursery</t>
@@ -86,13 +86,13 @@
     <t>A</t>
   </si>
   <si>
-    <t>Pass</t>
+    <t>Fail</t>
   </si>
   <si>
-    <t>Rhymes</t>
+    <t>Oral English</t>
   </si>
   <si>
-    <t>Drawing</t>
+    <t>Oral Maths</t>
   </si>
   <si>
     <t>English</t>
@@ -101,67 +101,133 @@
     <t>Maths</t>
   </si>
   <si>
-    <t>Oral English</t>
+    <t>Drawing</t>
   </si>
   <si>
-    <t>Pratisha Chetri</t>
+    <t>Pass</t>
   </si>
   <si>
-    <t>Nandini Jha</t>
+    <t>Parismita Konwar</t>
   </si>
   <si>
-    <t>Ayush Talukdar</t>
+    <t>Longbir Rongpi</t>
   </si>
   <si>
-    <t>Fail</t>
+    <t>Nilakshi Kro</t>
   </si>
   <si>
-    <t>Rakif Hussain</t>
+    <t>Anish Sumar</t>
   </si>
   <si>
-    <t>Hardik Rout</t>
+    <t>Viyona Sinha</t>
   </si>
   <si>
-    <t>Priyanshi Banik</t>
+    <t>Dyansh Banik</t>
   </si>
   <si>
-    <t>Dhitika Barman</t>
+    <t>Mriganka Das</t>
   </si>
   <si>
-    <t>Sneha Dey</t>
+    <t>Akanksha lalung</t>
   </si>
   <si>
-    <t>Ronak Jha</t>
+    <t>Trishna Rohang</t>
   </si>
   <si>
-    <t>Dhruv Talukdar</t>
+    <t>Shanvi Joshi</t>
   </si>
   <si>
-    <t>Ankita Sharki</t>
+    <t>Riyan Rabha</t>
   </si>
   <si>
-    <t>Arush Gwala</t>
+    <t>Kritika Barman</t>
   </si>
   <si>
-    <t>Anshu kumari</t>
+    <t>Divyansh Kumar</t>
   </si>
   <si>
-    <t>Ankush Yadav</t>
+    <t>Aryan Bhagat</t>
   </si>
   <si>
-    <t>Prakriti Chetry</t>
+    <t>Priyanshi Medhi</t>
   </si>
   <si>
-    <t>Nityam Kumar</t>
+    <t>Jyotiraditra Subedi</t>
   </si>
   <si>
-    <t>Abhik Upadhya</t>
+    <t>Jiyal Haloi</t>
   </si>
   <si>
-    <t>Bheemank Sharma</t>
+    <t>Kaushik Das</t>
   </si>
   <si>
-    <t>Agastya Chetri</t>
+    <t>Birat Sarania</t>
+  </si>
+  <si>
+    <t>Jyotishman Baruah</t>
+  </si>
+  <si>
+    <t>Sanjkuru Bordoloi</t>
+  </si>
+  <si>
+    <t>Deep Mahato</t>
+  </si>
+  <si>
+    <t>Rashi Das</t>
+  </si>
+  <si>
+    <t>kaushik Dutta</t>
+  </si>
+  <si>
+    <t>Binay Kro</t>
+  </si>
+  <si>
+    <t>Niyor Barman</t>
+  </si>
+  <si>
+    <t>Niket Kumar Choudhury</t>
+  </si>
+  <si>
+    <t>Harshita Kalita</t>
+  </si>
+  <si>
+    <t>Anshika Rajak</t>
+  </si>
+  <si>
+    <t>Rishi Rohang</t>
+  </si>
+  <si>
+    <t>Ayushi Choudhury</t>
+  </si>
+  <si>
+    <t>Arrika Chetri</t>
+  </si>
+  <si>
+    <t>Nirabh Jyoti Gyan</t>
+  </si>
+  <si>
+    <t>Kamal Dutta</t>
+  </si>
+  <si>
+    <t>Ankita Kumari</t>
+  </si>
+  <si>
+    <t>Mridansh Das</t>
+  </si>
+  <si>
+    <t>Avinash Sarma</t>
+  </si>
+  <si>
+    <t>Sauvik Das</t>
+  </si>
+  <si>
+    <t>Satyam Kumar Yadav</t>
+  </si>
+  <si>
+    <t>Ayan Dubey</t>
+  </si>
+  <si>
+    <t>Nimisha Ramshiari</t>
   </si>
 </sst>
 </file>
@@ -497,7 +563,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:N253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,10 +632,10 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
@@ -587,7 +653,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="N2" t="s">
         <v>23</v>
@@ -610,10 +676,10 @@
         <v>18</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
@@ -631,7 +697,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="N3" t="s">
         <v>23</v>
@@ -654,10 +720,10 @@
         <v>18</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
@@ -675,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c r="N4" t="s">
         <v>23</v>
@@ -719,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0</v>
+        <v>3.0</v>
       </c>
       <c r="N5" t="s">
         <v>23</v>
@@ -763,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.0</v>
+        <v>2.0</v>
       </c>
       <c r="N6" t="s">
         <v>23</v>
@@ -786,10 +852,10 @@
         <v>18</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
@@ -807,10 +873,10 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.0</v>
+        <v>19.0</v>
       </c>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -830,16 +896,16 @@
         <v>18</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
         <v>21</v>
@@ -851,10 +917,10 @@
         <v>2</v>
       </c>
       <c r="M8">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="N8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -868,22 +934,22 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
       <c r="F9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
         <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
@@ -895,10 +961,10 @@
         <v>2</v>
       </c>
       <c r="M9">
-        <v>21.0</v>
+        <v>10.0</v>
       </c>
       <c r="N9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -912,22 +978,22 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
       <c r="F10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H10" t="s">
         <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
         <v>21</v>
@@ -939,10 +1005,10 @@
         <v>2</v>
       </c>
       <c r="M10">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="N10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -971,7 +1037,7 @@
         <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J11" t="s">
         <v>21</v>
@@ -983,10 +1049,10 @@
         <v>2</v>
       </c>
       <c r="M11">
-        <v>10.0</v>
+        <v>24.0</v>
       </c>
       <c r="N11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1000,22 +1066,22 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H12" t="s">
         <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J12" t="s">
         <v>21</v>
@@ -1027,10 +1093,10 @@
         <v>2</v>
       </c>
       <c r="M12">
-        <v>5.0</v>
+        <v>19.5</v>
       </c>
       <c r="N12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1044,7 +1110,7 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
@@ -1059,7 +1125,7 @@
         <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J13" t="s">
         <v>21</v>
@@ -1071,10 +1137,10 @@
         <v>2</v>
       </c>
       <c r="M13">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="N13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1094,16 +1160,16 @@
         <v>18</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H14" t="s">
         <v>19</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J14" t="s">
         <v>21</v>
@@ -1115,10 +1181,10 @@
         <v>3</v>
       </c>
       <c r="M14">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="N14" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1132,22 +1198,22 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
       </c>
       <c r="F15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H15" t="s">
         <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J15" t="s">
         <v>21</v>
@@ -1159,10 +1225,10 @@
         <v>3</v>
       </c>
       <c r="M15">
-        <v>24.0</v>
+        <v>8.0</v>
       </c>
       <c r="N15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1176,7 +1242,7 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -1191,7 +1257,7 @@
         <v>19</v>
       </c>
       <c r="I16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J16" t="s">
         <v>21</v>
@@ -1203,10 +1269,10 @@
         <v>3</v>
       </c>
       <c r="M16">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="N16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1220,7 +1286,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -1235,7 +1301,7 @@
         <v>19</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J17" t="s">
         <v>21</v>
@@ -1247,10 +1313,10 @@
         <v>3</v>
       </c>
       <c r="M17">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="N17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1264,7 +1330,7 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -1279,7 +1345,7 @@
         <v>19</v>
       </c>
       <c r="I18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J18" t="s">
         <v>21</v>
@@ -1291,10 +1357,10 @@
         <v>3</v>
       </c>
       <c r="M18">
-        <v>21.0</v>
+        <v>19.5</v>
       </c>
       <c r="N18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1308,7 +1374,7 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
@@ -1323,7 +1389,7 @@
         <v>19</v>
       </c>
       <c r="I19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J19" t="s">
         <v>21</v>
@@ -1335,10 +1401,10 @@
         <v>3</v>
       </c>
       <c r="M19">
-        <v>22.0</v>
+        <v>14.0</v>
       </c>
       <c r="N19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1352,7 +1418,7 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
@@ -1367,7 +1433,7 @@
         <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J20" t="s">
         <v>21</v>
@@ -1379,10 +1445,10 @@
         <v>4</v>
       </c>
       <c r="M20">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="N20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1396,22 +1462,22 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
         <v>18</v>
       </c>
       <c r="F21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H21" t="s">
         <v>19</v>
       </c>
       <c r="I21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J21" t="s">
         <v>21</v>
@@ -1423,10 +1489,10 @@
         <v>4</v>
       </c>
       <c r="M21">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="N21" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1440,22 +1506,22 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
       </c>
       <c r="F22">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H22" t="s">
         <v>19</v>
       </c>
       <c r="I22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J22" t="s">
         <v>21</v>
@@ -1467,10 +1533,10 @@
         <v>4</v>
       </c>
       <c r="M22">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
       <c r="N22" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1484,22 +1550,22 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
         <v>18</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H23" t="s">
         <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J23" t="s">
         <v>21</v>
@@ -1511,10 +1577,10 @@
         <v>4</v>
       </c>
       <c r="M23">
-        <v>10.0</v>
+        <v>19.0</v>
       </c>
       <c r="N23" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1528,7 +1594,7 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
@@ -1543,7 +1609,7 @@
         <v>19</v>
       </c>
       <c r="I24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J24" t="s">
         <v>21</v>
@@ -1555,10 +1621,10 @@
         <v>4</v>
       </c>
       <c r="M24">
-        <v>23.0</v>
+        <v>21.5</v>
       </c>
       <c r="N24" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1578,16 +1644,16 @@
         <v>18</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H25" t="s">
         <v>19</v>
       </c>
       <c r="I25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J25" t="s">
         <v>21</v>
@@ -1599,10 +1665,10 @@
         <v>4</v>
       </c>
       <c r="M25">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c r="N25" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1616,7 +1682,7 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
@@ -1643,10 +1709,10 @@
         <v>5</v>
       </c>
       <c r="M26">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="N26" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1666,10 +1732,10 @@
         <v>18</v>
       </c>
       <c r="F27">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H27" t="s">
         <v>19</v>
@@ -1687,10 +1753,10 @@
         <v>5</v>
       </c>
       <c r="M27">
-        <v>25.0</v>
+        <v>4.0</v>
       </c>
       <c r="N27" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1710,10 +1776,10 @@
         <v>18</v>
       </c>
       <c r="F28">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G28">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H28" t="s">
         <v>19</v>
@@ -1731,7 +1797,7 @@
         <v>5</v>
       </c>
       <c r="M28">
-        <v>19.0</v>
+        <v>1.0</v>
       </c>
       <c r="N28" t="s">
         <v>23</v>
@@ -1748,7 +1814,7 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E29" t="s">
         <v>18</v>
@@ -1778,7 +1844,7 @@
         <v>15.0</v>
       </c>
       <c r="N29" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1792,16 +1858,16 @@
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
         <v>18</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H30" t="s">
         <v>19</v>
@@ -1819,10 +1885,10 @@
         <v>5</v>
       </c>
       <c r="M30">
-        <v>6.0</v>
+        <v>10.5</v>
       </c>
       <c r="N30" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1842,10 +1908,10 @@
         <v>18</v>
       </c>
       <c r="F31">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H31" t="s">
         <v>19</v>
@@ -1863,10 +1929,10 @@
         <v>5</v>
       </c>
       <c r="M31">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="N31" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1886,10 +1952,10 @@
         <v>18</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H32" t="s">
         <v>19</v>
@@ -1907,10 +1973,10 @@
         <v>6</v>
       </c>
       <c r="M32">
-        <v>10.0</v>
+        <v>22.0</v>
       </c>
       <c r="N32" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1924,16 +1990,16 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
         <v>18</v>
       </c>
       <c r="F33">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G33">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H33" t="s">
         <v>19</v>
@@ -1951,10 +2017,10 @@
         <v>6</v>
       </c>
       <c r="M33">
-        <v>25.0</v>
+        <v>5.0</v>
       </c>
       <c r="N33" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1974,10 +2040,10 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G34">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H34" t="s">
         <v>19</v>
@@ -1995,7 +2061,7 @@
         <v>6</v>
       </c>
       <c r="M34">
-        <v>22.0</v>
+        <v>1.0</v>
       </c>
       <c r="N34" t="s">
         <v>23</v>
@@ -2042,7 +2108,7 @@
         <v>23.0</v>
       </c>
       <c r="N35" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2056,7 +2122,7 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E36" t="s">
         <v>18</v>
@@ -2083,10 +2149,10 @@
         <v>6</v>
       </c>
       <c r="M36">
-        <v>25.0</v>
+        <v>8.5</v>
       </c>
       <c r="N36" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2106,10 +2172,10 @@
         <v>18</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H37" t="s">
         <v>19</v>
@@ -2127,10 +2193,10 @@
         <v>6</v>
       </c>
       <c r="M37">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="N37" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2144,16 +2210,16 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E38" t="s">
         <v>18</v>
       </c>
       <c r="F38">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H38" t="s">
         <v>19</v>
@@ -2174,7 +2240,7 @@
         <v>10.0</v>
       </c>
       <c r="N38" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2194,10 +2260,10 @@
         <v>18</v>
       </c>
       <c r="F39">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G39">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H39" t="s">
         <v>19</v>
@@ -2215,10 +2281,10 @@
         <v>7</v>
       </c>
       <c r="M39">
-        <v>25.0</v>
+        <v>5.0</v>
       </c>
       <c r="N39" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2232,7 +2298,7 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E40" t="s">
         <v>18</v>
@@ -2259,10 +2325,10 @@
         <v>7</v>
       </c>
       <c r="M40">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="N40" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2276,7 +2342,7 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E41" t="s">
         <v>18</v>
@@ -2303,10 +2369,10 @@
         <v>7</v>
       </c>
       <c r="M41">
-        <v>23.0</v>
+        <v>23.5</v>
       </c>
       <c r="N41" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2320,7 +2386,7 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E42" t="s">
         <v>18</v>
@@ -2347,10 +2413,10 @@
         <v>7</v>
       </c>
       <c r="M42">
-        <v>20.5</v>
+        <v>21.0</v>
       </c>
       <c r="N42" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2364,7 +2430,7 @@
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E43" t="s">
         <v>18</v>
@@ -2391,10 +2457,10 @@
         <v>7</v>
       </c>
       <c r="M43">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="N43" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2408,7 +2474,7 @@
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E44" t="s">
         <v>18</v>
@@ -2435,10 +2501,10 @@
         <v>8</v>
       </c>
       <c r="M44">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
       <c r="N44" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2452,7 +2518,7 @@
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E45" t="s">
         <v>18</v>
@@ -2479,10 +2545,10 @@
         <v>8</v>
       </c>
       <c r="M45">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="N45" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2496,16 +2562,16 @@
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E46" t="s">
         <v>18</v>
       </c>
       <c r="F46">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G46">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H46" t="s">
         <v>19</v>
@@ -2523,10 +2589,10 @@
         <v>8</v>
       </c>
       <c r="M46">
-        <v>22.5</v>
+        <v>8.0</v>
       </c>
       <c r="N46" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2540,16 +2606,16 @@
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E47" t="s">
         <v>18</v>
       </c>
       <c r="F47">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H47" t="s">
         <v>19</v>
@@ -2567,10 +2633,10 @@
         <v>8</v>
       </c>
       <c r="M47">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="N47" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2584,7 +2650,7 @@
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E48" t="s">
         <v>18</v>
@@ -2611,10 +2677,10 @@
         <v>8</v>
       </c>
       <c r="M48">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="N48" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2628,7 +2694,7 @@
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E49" t="s">
         <v>18</v>
@@ -2655,10 +2721,10 @@
         <v>8</v>
       </c>
       <c r="M49">
-        <v>25.0</v>
+        <v>13.0</v>
       </c>
       <c r="N49" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2672,16 +2738,16 @@
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E50" t="s">
         <v>18</v>
       </c>
       <c r="F50">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H50" t="s">
         <v>19</v>
@@ -2699,10 +2765,10 @@
         <v>9</v>
       </c>
       <c r="M50">
-        <v>10.0</v>
+        <v>23.0</v>
       </c>
       <c r="N50" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2722,10 +2788,10 @@
         <v>18</v>
       </c>
       <c r="F51">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G51">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H51" t="s">
         <v>19</v>
@@ -2743,10 +2809,10 @@
         <v>9</v>
       </c>
       <c r="M51">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="N51" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2760,16 +2826,16 @@
         <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E52" t="s">
         <v>18</v>
       </c>
       <c r="F52">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G52">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H52" t="s">
         <v>19</v>
@@ -2787,10 +2853,10 @@
         <v>9</v>
       </c>
       <c r="M52">
-        <v>21.5</v>
+        <v>10.0</v>
       </c>
       <c r="N52" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2804,7 +2870,7 @@
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E53" t="s">
         <v>18</v>
@@ -2834,7 +2900,7 @@
         <v>25.0</v>
       </c>
       <c r="N53" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2848,16 +2914,16 @@
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E54" t="s">
         <v>18</v>
       </c>
       <c r="F54">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H54" t="s">
         <v>19</v>
@@ -2875,10 +2941,10 @@
         <v>9</v>
       </c>
       <c r="M54">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="N54" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2892,7 +2958,7 @@
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E55" t="s">
         <v>18</v>
@@ -2919,10 +2985,10 @@
         <v>9</v>
       </c>
       <c r="M55">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="N55" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -2936,7 +3002,7 @@
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E56" t="s">
         <v>18</v>
@@ -2966,7 +3032,7 @@
         <v>20.0</v>
       </c>
       <c r="N56" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -2980,16 +3046,16 @@
         <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E57" t="s">
         <v>18</v>
       </c>
       <c r="F57">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G57">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H57" t="s">
         <v>19</v>
@@ -3007,10 +3073,10 @@
         <v>10</v>
       </c>
       <c r="M57">
-        <v>24.0</v>
+        <v>6.0</v>
       </c>
       <c r="N57" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3024,7 +3090,7 @@
         <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E58" t="s">
         <v>18</v>
@@ -3051,10 +3117,10 @@
         <v>10</v>
       </c>
       <c r="M58">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="N58" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3095,10 +3161,10 @@
         <v>10</v>
       </c>
       <c r="M59">
-        <v>20.5</v>
+        <v>19.0</v>
       </c>
       <c r="N59" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3112,16 +3178,16 @@
         <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E60" t="s">
         <v>18</v>
       </c>
       <c r="F60">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H60" t="s">
         <v>19</v>
@@ -3139,10 +3205,10 @@
         <v>10</v>
       </c>
       <c r="M60">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="N60" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3156,7 +3222,7 @@
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E61" t="s">
         <v>18</v>
@@ -3183,10 +3249,10 @@
         <v>10</v>
       </c>
       <c r="M61">
-        <v>22.0</v>
+        <v>13.0</v>
       </c>
       <c r="N61" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3200,7 +3266,7 @@
         <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E62" t="s">
         <v>18</v>
@@ -3227,10 +3293,10 @@
         <v>11</v>
       </c>
       <c r="M62">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="N62" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3244,7 +3310,7 @@
         <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E63" t="s">
         <v>18</v>
@@ -3274,7 +3340,7 @@
         <v>10.0</v>
       </c>
       <c r="N63" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3288,16 +3354,16 @@
         <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E64" t="s">
         <v>18</v>
       </c>
       <c r="F64">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G64">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H64" t="s">
         <v>19</v>
@@ -3315,10 +3381,10 @@
         <v>11</v>
       </c>
       <c r="M64">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
       <c r="N64" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3332,16 +3398,16 @@
         <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E65" t="s">
         <v>18</v>
       </c>
       <c r="F65">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H65" t="s">
         <v>19</v>
@@ -3359,10 +3425,10 @@
         <v>11</v>
       </c>
       <c r="M65">
-        <v>10.0</v>
+        <v>24.0</v>
       </c>
       <c r="N65" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3376,7 +3442,7 @@
         <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E66" t="s">
         <v>18</v>
@@ -3403,10 +3469,10 @@
         <v>11</v>
       </c>
       <c r="M66">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="N66" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3420,7 +3486,7 @@
         <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E67" t="s">
         <v>18</v>
@@ -3447,10 +3513,10 @@
         <v>11</v>
       </c>
       <c r="M67">
-        <v>22.0</v>
+        <v>19.0</v>
       </c>
       <c r="N67" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3464,7 +3530,7 @@
         <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E68" t="s">
         <v>18</v>
@@ -3491,7 +3557,7 @@
         <v>12</v>
       </c>
       <c r="M68">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="N68" t="s">
         <v>23</v>
@@ -3508,7 +3574,7 @@
         <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E69" t="s">
         <v>18</v>
@@ -3535,7 +3601,7 @@
         <v>12</v>
       </c>
       <c r="M69">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="N69" t="s">
         <v>23</v>
@@ -3552,16 +3618,16 @@
         <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E70" t="s">
         <v>18</v>
       </c>
       <c r="F70">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G70">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H70" t="s">
         <v>19</v>
@@ -3579,7 +3645,7 @@
         <v>12</v>
       </c>
       <c r="M70">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="N70" t="s">
         <v>23</v>
@@ -3596,16 +3662,16 @@
         <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E71" t="s">
         <v>18</v>
       </c>
       <c r="F71">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H71" t="s">
         <v>19</v>
@@ -3623,7 +3689,7 @@
         <v>12</v>
       </c>
       <c r="M71">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="N71" t="s">
         <v>23</v>
@@ -3640,7 +3706,7 @@
         <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E72" t="s">
         <v>18</v>
@@ -3667,7 +3733,7 @@
         <v>12</v>
       </c>
       <c r="M72">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
       <c r="N72" t="s">
         <v>23</v>
@@ -3684,7 +3750,7 @@
         <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E73" t="s">
         <v>18</v>
@@ -3711,7 +3777,7 @@
         <v>12</v>
       </c>
       <c r="M73">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="N73" t="s">
         <v>23</v>
@@ -3734,10 +3800,10 @@
         <v>18</v>
       </c>
       <c r="F74">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H74" t="s">
         <v>19</v>
@@ -3755,10 +3821,10 @@
         <v>13</v>
       </c>
       <c r="M74">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="N74" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3778,10 +3844,10 @@
         <v>18</v>
       </c>
       <c r="F75">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G75">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H75" t="s">
         <v>19</v>
@@ -3799,7 +3865,7 @@
         <v>13</v>
       </c>
       <c r="M75">
-        <v>25.0</v>
+        <v>2.0</v>
       </c>
       <c r="N75" t="s">
         <v>23</v>
@@ -3816,16 +3882,16 @@
         <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E76" t="s">
         <v>18</v>
       </c>
       <c r="F76">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G76">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H76" t="s">
         <v>19</v>
@@ -3843,10 +3909,10 @@
         <v>13</v>
       </c>
       <c r="M76">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N76" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3860,7 +3926,7 @@
         <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E77" t="s">
         <v>18</v>
@@ -3887,10 +3953,10 @@
         <v>13</v>
       </c>
       <c r="M77">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="N77" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3904,16 +3970,16 @@
         <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E78" t="s">
         <v>18</v>
       </c>
       <c r="F78">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H78" t="s">
         <v>19</v>
@@ -3931,10 +3997,10 @@
         <v>13</v>
       </c>
       <c r="M78">
-        <v>10.0</v>
+        <v>14.5</v>
       </c>
       <c r="N78" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3948,7 +4014,7 @@
         <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E79" t="s">
         <v>18</v>
@@ -3975,10 +4041,10 @@
         <v>13</v>
       </c>
       <c r="M79">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="N79" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3992,7 +4058,7 @@
         <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E80" t="s">
         <v>18</v>
@@ -4019,10 +4085,10 @@
         <v>14</v>
       </c>
       <c r="M80">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="N80" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4036,7 +4102,7 @@
         <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E81" t="s">
         <v>18</v>
@@ -4063,10 +4129,10 @@
         <v>14</v>
       </c>
       <c r="M81">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="N81" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4080,7 +4146,7 @@
         <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E82" t="s">
         <v>18</v>
@@ -4107,10 +4173,10 @@
         <v>14</v>
       </c>
       <c r="M82">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="N82" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4151,10 +4217,10 @@
         <v>14</v>
       </c>
       <c r="M83">
-        <v>11.5</v>
+        <v>22.0</v>
       </c>
       <c r="N83" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4195,10 +4261,10 @@
         <v>14</v>
       </c>
       <c r="M84">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="N84" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4212,7 +4278,7 @@
         <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E85" t="s">
         <v>18</v>
@@ -4239,10 +4305,10 @@
         <v>14</v>
       </c>
       <c r="M85">
-        <v>19.0</v>
+        <v>14.0</v>
       </c>
       <c r="N85" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4256,16 +4322,16 @@
         <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E86" t="s">
         <v>18</v>
       </c>
       <c r="F86">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G86">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H86" t="s">
         <v>19</v>
@@ -4283,10 +4349,10 @@
         <v>15</v>
       </c>
       <c r="M86">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="N86" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4306,10 +4372,10 @@
         <v>18</v>
       </c>
       <c r="F87">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G87">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H87" t="s">
         <v>19</v>
@@ -4327,10 +4393,10 @@
         <v>15</v>
       </c>
       <c r="M87">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
       <c r="N87" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4344,7 +4410,7 @@
         <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E88" t="s">
         <v>18</v>
@@ -4371,10 +4437,10 @@
         <v>15</v>
       </c>
       <c r="M88">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="N88" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4388,7 +4454,7 @@
         <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E89" t="s">
         <v>18</v>
@@ -4415,10 +4481,10 @@
         <v>15</v>
       </c>
       <c r="M89">
-        <v>25.0</v>
+        <v>24.5</v>
       </c>
       <c r="N89" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4432,7 +4498,7 @@
         <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E90" t="s">
         <v>18</v>
@@ -4459,10 +4525,10 @@
         <v>15</v>
       </c>
       <c r="M90">
-        <v>23.0</v>
+        <v>22.5</v>
       </c>
       <c r="N90" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4476,7 +4542,7 @@
         <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E91" t="s">
         <v>18</v>
@@ -4503,10 +4569,10 @@
         <v>15</v>
       </c>
       <c r="M91">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="N91" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4520,7 +4586,7 @@
         <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E92" t="s">
         <v>18</v>
@@ -4547,10 +4613,10 @@
         <v>16</v>
       </c>
       <c r="M92">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
       <c r="N92" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4570,10 +4636,10 @@
         <v>18</v>
       </c>
       <c r="F93">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G93">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H93" t="s">
         <v>19</v>
@@ -4591,7 +4657,7 @@
         <v>16</v>
       </c>
       <c r="M93">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
       <c r="N93" t="s">
         <v>23</v>
@@ -4608,7 +4674,7 @@
         <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E94" t="s">
         <v>18</v>
@@ -4635,7 +4701,7 @@
         <v>16</v>
       </c>
       <c r="M94">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="N94" t="s">
         <v>23</v>
@@ -4652,16 +4718,16 @@
         <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E95" t="s">
         <v>18</v>
       </c>
       <c r="F95">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G95">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H95" t="s">
         <v>19</v>
@@ -4679,10 +4745,10 @@
         <v>16</v>
       </c>
       <c r="M95">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="N95" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4696,7 +4762,7 @@
         <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E96" t="s">
         <v>18</v>
@@ -4723,10 +4789,10 @@
         <v>16</v>
       </c>
       <c r="M96">
-        <v>23.0</v>
+        <v>11.0</v>
       </c>
       <c r="N96" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4740,7 +4806,7 @@
         <v>16</v>
       </c>
       <c r="D97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E97" t="s">
         <v>18</v>
@@ -4767,10 +4833,10 @@
         <v>16</v>
       </c>
       <c r="M97">
-        <v>22.0</v>
+        <v>17.0</v>
       </c>
       <c r="N97" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4784,7 +4850,7 @@
         <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E98" t="s">
         <v>18</v>
@@ -4811,7 +4877,7 @@
         <v>17</v>
       </c>
       <c r="M98">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
       <c r="N98" t="s">
         <v>23</v>
@@ -4828,16 +4894,16 @@
         <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E99" t="s">
         <v>18</v>
       </c>
       <c r="F99">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G99">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H99" t="s">
         <v>19</v>
@@ -4855,10 +4921,10 @@
         <v>17</v>
       </c>
       <c r="M99">
-        <v>25.0</v>
+        <v>5.0</v>
       </c>
       <c r="N99" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4872,7 +4938,7 @@
         <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E100" t="s">
         <v>18</v>
@@ -4899,10 +4965,10 @@
         <v>17</v>
       </c>
       <c r="M100">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="N100" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4916,7 +4982,7 @@
         <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E101" t="s">
         <v>18</v>
@@ -4946,7 +5012,7 @@
         <v>23.0</v>
       </c>
       <c r="N101" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -4960,7 +5026,7 @@
         <v>16</v>
       </c>
       <c r="D102" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E102" t="s">
         <v>18</v>
@@ -4990,7 +5056,7 @@
         <v>25.0</v>
       </c>
       <c r="N102" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5010,10 +5076,10 @@
         <v>18</v>
       </c>
       <c r="F103">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G103">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H103" t="s">
         <v>19</v>
@@ -5031,10 +5097,10 @@
         <v>17</v>
       </c>
       <c r="M103">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="N103" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5054,10 +5120,10 @@
         <v>18</v>
       </c>
       <c r="F104">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G104">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H104" t="s">
         <v>19</v>
@@ -5075,10 +5141,10 @@
         <v>18</v>
       </c>
       <c r="M104">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="N104" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5092,16 +5158,16 @@
         <v>16</v>
       </c>
       <c r="D105" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E105" t="s">
         <v>18</v>
       </c>
       <c r="F105">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G105">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H105" t="s">
         <v>19</v>
@@ -5119,10 +5185,10 @@
         <v>18</v>
       </c>
       <c r="M105">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
       <c r="N105" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5142,10 +5208,10 @@
         <v>18</v>
       </c>
       <c r="F106">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G106">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H106" t="s">
         <v>19</v>
@@ -5163,10 +5229,10 @@
         <v>18</v>
       </c>
       <c r="M106">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="N106" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5180,16 +5246,16 @@
         <v>16</v>
       </c>
       <c r="D107" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E107" t="s">
         <v>18</v>
       </c>
       <c r="F107">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G107">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H107" t="s">
         <v>19</v>
@@ -5207,10 +5273,10 @@
         <v>18</v>
       </c>
       <c r="M107">
-        <v>10.0</v>
+        <v>21.5</v>
       </c>
       <c r="N107" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5224,7 +5290,7 @@
         <v>16</v>
       </c>
       <c r="D108" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E108" t="s">
         <v>18</v>
@@ -5251,10 +5317,10 @@
         <v>18</v>
       </c>
       <c r="M108">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="N108" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5268,7 +5334,7 @@
         <v>16</v>
       </c>
       <c r="D109" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E109" t="s">
         <v>18</v>
@@ -5295,10 +5361,10 @@
         <v>18</v>
       </c>
       <c r="M109">
-        <v>25.0</v>
+        <v>19.0</v>
       </c>
       <c r="N109" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5312,7 +5378,7 @@
         <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E110" t="s">
         <v>18</v>
@@ -5339,10 +5405,10 @@
         <v>19</v>
       </c>
       <c r="M110">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="N110" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5356,16 +5422,16 @@
         <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E111" t="s">
         <v>18</v>
       </c>
       <c r="F111">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G111">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H111" t="s">
         <v>19</v>
@@ -5383,10 +5449,10 @@
         <v>19</v>
       </c>
       <c r="M111">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="N111" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5400,16 +5466,16 @@
         <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E112" t="s">
         <v>18</v>
       </c>
       <c r="F112">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G112">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H112" t="s">
         <v>19</v>
@@ -5427,10 +5493,10 @@
         <v>19</v>
       </c>
       <c r="M112">
-        <v>24.0</v>
+        <v>9.0</v>
       </c>
       <c r="N112" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5471,10 +5537,10 @@
         <v>19</v>
       </c>
       <c r="M113">
-        <v>9.5</v>
+        <v>25.0</v>
       </c>
       <c r="N113" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5488,16 +5554,16 @@
         <v>16</v>
       </c>
       <c r="D114" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E114" t="s">
         <v>18</v>
       </c>
       <c r="F114">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G114">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H114" t="s">
         <v>19</v>
@@ -5515,10 +5581,10 @@
         <v>19</v>
       </c>
       <c r="M114">
-        <v>8.0</v>
+        <v>25.0</v>
       </c>
       <c r="N114" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5538,10 +5604,10 @@
         <v>18</v>
       </c>
       <c r="F115">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G115">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H115" t="s">
         <v>19</v>
@@ -5559,10 +5625,10 @@
         <v>19</v>
       </c>
       <c r="M115">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
       <c r="N115" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5576,7 +5642,7 @@
         <v>16</v>
       </c>
       <c r="D116" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E116" t="s">
         <v>18</v>
@@ -5603,10 +5669,10 @@
         <v>20</v>
       </c>
       <c r="M116">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="N116" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -5620,16 +5686,16 @@
         <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E117" t="s">
         <v>18</v>
       </c>
       <c r="F117">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G117">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H117" t="s">
         <v>19</v>
@@ -5647,10 +5713,10 @@
         <v>20</v>
       </c>
       <c r="M117">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="N117" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -5664,7 +5730,7 @@
         <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E118" t="s">
         <v>18</v>
@@ -5694,7 +5760,7 @@
         <v>10.0</v>
       </c>
       <c r="N118" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -5708,7 +5774,7 @@
         <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E119" t="s">
         <v>18</v>
@@ -5735,10 +5801,10 @@
         <v>20</v>
       </c>
       <c r="M119">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="N119" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -5782,7 +5848,7 @@
         <v>25.0</v>
       </c>
       <c r="N120" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -5802,10 +5868,10 @@
         <v>18</v>
       </c>
       <c r="F121">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G121">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H121" t="s">
         <v>19</v>
@@ -5823,10 +5889,5818 @@
         <v>20</v>
       </c>
       <c r="M121">
+        <v>20.0</v>
+      </c>
+      <c r="N121" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" t="s">
+        <v>18</v>
+      </c>
+      <c r="F122">
+        <v>25</v>
+      </c>
+      <c r="G122">
+        <v>7</v>
+      </c>
+      <c r="H122" t="s">
+        <v>19</v>
+      </c>
+      <c r="I122" t="s">
+        <v>49</v>
+      </c>
+      <c r="J122" t="s">
+        <v>21</v>
+      </c>
+      <c r="K122" t="s">
+        <v>22</v>
+      </c>
+      <c r="L122">
+        <v>21</v>
+      </c>
+      <c r="M122">
+        <v>20.0</v>
+      </c>
+      <c r="N122" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
+        <v>24</v>
+      </c>
+      <c r="E123" t="s">
+        <v>18</v>
+      </c>
+      <c r="F123">
+        <v>10</v>
+      </c>
+      <c r="G123">
+        <v>3</v>
+      </c>
+      <c r="H123" t="s">
+        <v>19</v>
+      </c>
+      <c r="I123" t="s">
+        <v>49</v>
+      </c>
+      <c r="J123" t="s">
+        <v>21</v>
+      </c>
+      <c r="K123" t="s">
+        <v>22</v>
+      </c>
+      <c r="L123">
+        <v>21</v>
+      </c>
+      <c r="M123">
+        <v>8.0</v>
+      </c>
+      <c r="N123" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" t="s">
+        <v>25</v>
+      </c>
+      <c r="E124" t="s">
+        <v>18</v>
+      </c>
+      <c r="F124">
+        <v>10</v>
+      </c>
+      <c r="G124">
+        <v>3</v>
+      </c>
+      <c r="H124" t="s">
+        <v>19</v>
+      </c>
+      <c r="I124" t="s">
+        <v>49</v>
+      </c>
+      <c r="J124" t="s">
+        <v>21</v>
+      </c>
+      <c r="K124" t="s">
+        <v>22</v>
+      </c>
+      <c r="L124">
+        <v>21</v>
+      </c>
+      <c r="M124">
+        <v>8.0</v>
+      </c>
+      <c r="N124" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>26</v>
+      </c>
+      <c r="E125" t="s">
+        <v>18</v>
+      </c>
+      <c r="F125">
+        <v>25</v>
+      </c>
+      <c r="G125">
+        <v>7</v>
+      </c>
+      <c r="H125" t="s">
+        <v>19</v>
+      </c>
+      <c r="I125" t="s">
+        <v>49</v>
+      </c>
+      <c r="J125" t="s">
+        <v>21</v>
+      </c>
+      <c r="K125" t="s">
+        <v>22</v>
+      </c>
+      <c r="L125">
+        <v>21</v>
+      </c>
+      <c r="M125">
+        <v>24.0</v>
+      </c>
+      <c r="N125" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
+        <v>27</v>
+      </c>
+      <c r="E126" t="s">
+        <v>18</v>
+      </c>
+      <c r="F126">
+        <v>25</v>
+      </c>
+      <c r="G126">
+        <v>7</v>
+      </c>
+      <c r="H126" t="s">
+        <v>19</v>
+      </c>
+      <c r="I126" t="s">
+        <v>49</v>
+      </c>
+      <c r="J126" t="s">
+        <v>21</v>
+      </c>
+      <c r="K126" t="s">
+        <v>22</v>
+      </c>
+      <c r="L126">
+        <v>21</v>
+      </c>
+      <c r="M126">
+        <v>25.0</v>
+      </c>
+      <c r="N126" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" t="s">
+        <v>18</v>
+      </c>
+      <c r="F127">
+        <v>25</v>
+      </c>
+      <c r="G127">
+        <v>7</v>
+      </c>
+      <c r="H127" t="s">
+        <v>19</v>
+      </c>
+      <c r="I127" t="s">
+        <v>49</v>
+      </c>
+      <c r="J127" t="s">
+        <v>21</v>
+      </c>
+      <c r="K127" t="s">
+        <v>22</v>
+      </c>
+      <c r="L127">
+        <v>21</v>
+      </c>
+      <c r="M127">
+        <v>16.0</v>
+      </c>
+      <c r="N127" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" t="s">
+        <v>18</v>
+      </c>
+      <c r="F128">
+        <v>25</v>
+      </c>
+      <c r="G128">
+        <v>7</v>
+      </c>
+      <c r="H128" t="s">
+        <v>19</v>
+      </c>
+      <c r="I128" t="s">
+        <v>50</v>
+      </c>
+      <c r="J128" t="s">
+        <v>21</v>
+      </c>
+      <c r="K128" t="s">
+        <v>22</v>
+      </c>
+      <c r="L128">
+        <v>22</v>
+      </c>
+      <c r="M128">
+        <v>22.0</v>
+      </c>
+      <c r="N128" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" t="s">
+        <v>24</v>
+      </c>
+      <c r="E129" t="s">
+        <v>18</v>
+      </c>
+      <c r="F129">
+        <v>10</v>
+      </c>
+      <c r="G129">
+        <v>3</v>
+      </c>
+      <c r="H129" t="s">
+        <v>19</v>
+      </c>
+      <c r="I129" t="s">
+        <v>50</v>
+      </c>
+      <c r="J129" t="s">
+        <v>21</v>
+      </c>
+      <c r="K129" t="s">
+        <v>22</v>
+      </c>
+      <c r="L129">
+        <v>22</v>
+      </c>
+      <c r="M129">
+        <v>8.0</v>
+      </c>
+      <c r="N129" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" t="s">
+        <v>18</v>
+      </c>
+      <c r="F130">
+        <v>10</v>
+      </c>
+      <c r="G130">
+        <v>3</v>
+      </c>
+      <c r="H130" t="s">
+        <v>19</v>
+      </c>
+      <c r="I130" t="s">
+        <v>50</v>
+      </c>
+      <c r="J130" t="s">
+        <v>21</v>
+      </c>
+      <c r="K130" t="s">
+        <v>22</v>
+      </c>
+      <c r="L130">
+        <v>22</v>
+      </c>
+      <c r="M130">
+        <v>8.0</v>
+      </c>
+      <c r="N130" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>26</v>
+      </c>
+      <c r="E131" t="s">
+        <v>18</v>
+      </c>
+      <c r="F131">
+        <v>25</v>
+      </c>
+      <c r="G131">
+        <v>7</v>
+      </c>
+      <c r="H131" t="s">
+        <v>19</v>
+      </c>
+      <c r="I131" t="s">
+        <v>50</v>
+      </c>
+      <c r="J131" t="s">
+        <v>21</v>
+      </c>
+      <c r="K131" t="s">
+        <v>22</v>
+      </c>
+      <c r="L131">
+        <v>22</v>
+      </c>
+      <c r="M131">
+        <v>24.5</v>
+      </c>
+      <c r="N131" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="A132" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" t="s">
+        <v>27</v>
+      </c>
+      <c r="E132" t="s">
+        <v>18</v>
+      </c>
+      <c r="F132">
+        <v>25</v>
+      </c>
+      <c r="G132">
+        <v>7</v>
+      </c>
+      <c r="H132" t="s">
+        <v>19</v>
+      </c>
+      <c r="I132" t="s">
+        <v>50</v>
+      </c>
+      <c r="J132" t="s">
+        <v>21</v>
+      </c>
+      <c r="K132" t="s">
+        <v>22</v>
+      </c>
+      <c r="L132">
+        <v>22</v>
+      </c>
+      <c r="M132">
+        <v>21.5</v>
+      </c>
+      <c r="N132" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133" t="s">
+        <v>14</v>
+      </c>
+      <c r="B133" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" t="s">
+        <v>18</v>
+      </c>
+      <c r="F133">
+        <v>25</v>
+      </c>
+      <c r="G133">
+        <v>7</v>
+      </c>
+      <c r="H133" t="s">
+        <v>19</v>
+      </c>
+      <c r="I133" t="s">
+        <v>50</v>
+      </c>
+      <c r="J133" t="s">
+        <v>21</v>
+      </c>
+      <c r="K133" t="s">
+        <v>22</v>
+      </c>
+      <c r="L133">
+        <v>22</v>
+      </c>
+      <c r="M133">
+        <v>16.0</v>
+      </c>
+      <c r="N133" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134" t="s">
+        <v>14</v>
+      </c>
+      <c r="B134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" t="s">
+        <v>18</v>
+      </c>
+      <c r="F134">
+        <v>25</v>
+      </c>
+      <c r="G134">
+        <v>7</v>
+      </c>
+      <c r="H134" t="s">
+        <v>19</v>
+      </c>
+      <c r="I134" t="s">
+        <v>51</v>
+      </c>
+      <c r="J134" t="s">
+        <v>21</v>
+      </c>
+      <c r="K134" t="s">
+        <v>22</v>
+      </c>
+      <c r="L134">
+        <v>23</v>
+      </c>
+      <c r="M134">
+        <v>20.0</v>
+      </c>
+      <c r="N134" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" t="s">
+        <v>24</v>
+      </c>
+      <c r="E135" t="s">
+        <v>18</v>
+      </c>
+      <c r="F135">
+        <v>10</v>
+      </c>
+      <c r="G135">
+        <v>3</v>
+      </c>
+      <c r="H135" t="s">
+        <v>19</v>
+      </c>
+      <c r="I135" t="s">
+        <v>51</v>
+      </c>
+      <c r="J135" t="s">
+        <v>21</v>
+      </c>
+      <c r="K135" t="s">
+        <v>22</v>
+      </c>
+      <c r="L135">
+        <v>23</v>
+      </c>
+      <c r="M135">
+        <v>10.0</v>
+      </c>
+      <c r="N135" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="A136" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" t="s">
+        <v>25</v>
+      </c>
+      <c r="E136" t="s">
+        <v>18</v>
+      </c>
+      <c r="F136">
+        <v>10</v>
+      </c>
+      <c r="G136">
+        <v>3</v>
+      </c>
+      <c r="H136" t="s">
+        <v>19</v>
+      </c>
+      <c r="I136" t="s">
+        <v>51</v>
+      </c>
+      <c r="J136" t="s">
+        <v>21</v>
+      </c>
+      <c r="K136" t="s">
+        <v>22</v>
+      </c>
+      <c r="L136">
+        <v>23</v>
+      </c>
+      <c r="M136">
+        <v>10.0</v>
+      </c>
+      <c r="N136" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="A137" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" t="s">
+        <v>26</v>
+      </c>
+      <c r="E137" t="s">
+        <v>18</v>
+      </c>
+      <c r="F137">
+        <v>25</v>
+      </c>
+      <c r="G137">
+        <v>7</v>
+      </c>
+      <c r="H137" t="s">
+        <v>19</v>
+      </c>
+      <c r="I137" t="s">
+        <v>51</v>
+      </c>
+      <c r="J137" t="s">
+        <v>21</v>
+      </c>
+      <c r="K137" t="s">
+        <v>22</v>
+      </c>
+      <c r="L137">
+        <v>23</v>
+      </c>
+      <c r="M137">
+        <v>25.0</v>
+      </c>
+      <c r="N137" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="A138" t="s">
+        <v>14</v>
+      </c>
+      <c r="B138" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" t="s">
+        <v>27</v>
+      </c>
+      <c r="E138" t="s">
+        <v>18</v>
+      </c>
+      <c r="F138">
+        <v>25</v>
+      </c>
+      <c r="G138">
+        <v>7</v>
+      </c>
+      <c r="H138" t="s">
+        <v>19</v>
+      </c>
+      <c r="I138" t="s">
+        <v>51</v>
+      </c>
+      <c r="J138" t="s">
+        <v>21</v>
+      </c>
+      <c r="K138" t="s">
+        <v>22</v>
+      </c>
+      <c r="L138">
+        <v>23</v>
+      </c>
+      <c r="M138">
+        <v>25.0</v>
+      </c>
+      <c r="N138" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="A139" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" t="s">
+        <v>18</v>
+      </c>
+      <c r="F139">
+        <v>25</v>
+      </c>
+      <c r="G139">
+        <v>7</v>
+      </c>
+      <c r="H139" t="s">
+        <v>19</v>
+      </c>
+      <c r="I139" t="s">
+        <v>51</v>
+      </c>
+      <c r="J139" t="s">
+        <v>21</v>
+      </c>
+      <c r="K139" t="s">
+        <v>22</v>
+      </c>
+      <c r="L139">
+        <v>23</v>
+      </c>
+      <c r="M139">
+        <v>17.0</v>
+      </c>
+      <c r="N139" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="A140" t="s">
+        <v>14</v>
+      </c>
+      <c r="B140" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140" t="s">
+        <v>18</v>
+      </c>
+      <c r="F140">
+        <v>25</v>
+      </c>
+      <c r="G140">
+        <v>7</v>
+      </c>
+      <c r="H140" t="s">
+        <v>19</v>
+      </c>
+      <c r="I140" t="s">
+        <v>52</v>
+      </c>
+      <c r="J140" t="s">
+        <v>21</v>
+      </c>
+      <c r="K140" t="s">
+        <v>22</v>
+      </c>
+      <c r="L140">
+        <v>24</v>
+      </c>
+      <c r="M140">
+        <v>25.0</v>
+      </c>
+      <c r="N140" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="A141" t="s">
+        <v>14</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" t="s">
+        <v>24</v>
+      </c>
+      <c r="E141" t="s">
+        <v>18</v>
+      </c>
+      <c r="F141">
+        <v>10</v>
+      </c>
+      <c r="G141">
+        <v>3</v>
+      </c>
+      <c r="H141" t="s">
+        <v>19</v>
+      </c>
+      <c r="I141" t="s">
+        <v>52</v>
+      </c>
+      <c r="J141" t="s">
+        <v>21</v>
+      </c>
+      <c r="K141" t="s">
+        <v>22</v>
+      </c>
+      <c r="L141">
+        <v>24</v>
+      </c>
+      <c r="M141">
+        <v>8.0</v>
+      </c>
+      <c r="N141" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" t="s">
+        <v>25</v>
+      </c>
+      <c r="E142" t="s">
+        <v>18</v>
+      </c>
+      <c r="F142">
+        <v>10</v>
+      </c>
+      <c r="G142">
+        <v>3</v>
+      </c>
+      <c r="H142" t="s">
+        <v>19</v>
+      </c>
+      <c r="I142" t="s">
+        <v>52</v>
+      </c>
+      <c r="J142" t="s">
+        <v>21</v>
+      </c>
+      <c r="K142" t="s">
+        <v>22</v>
+      </c>
+      <c r="L142">
+        <v>24</v>
+      </c>
+      <c r="M142">
+        <v>8.0</v>
+      </c>
+      <c r="N142" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="A143" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" t="s">
+        <v>26</v>
+      </c>
+      <c r="E143" t="s">
+        <v>18</v>
+      </c>
+      <c r="F143">
+        <v>25</v>
+      </c>
+      <c r="G143">
+        <v>7</v>
+      </c>
+      <c r="H143" t="s">
+        <v>19</v>
+      </c>
+      <c r="I143" t="s">
+        <v>52</v>
+      </c>
+      <c r="J143" t="s">
+        <v>21</v>
+      </c>
+      <c r="K143" t="s">
+        <v>22</v>
+      </c>
+      <c r="L143">
+        <v>24</v>
+      </c>
+      <c r="M143">
+        <v>25.0</v>
+      </c>
+      <c r="N143" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="A144" t="s">
+        <v>14</v>
+      </c>
+      <c r="B144" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" t="s">
+        <v>27</v>
+      </c>
+      <c r="E144" t="s">
+        <v>18</v>
+      </c>
+      <c r="F144">
+        <v>25</v>
+      </c>
+      <c r="G144">
+        <v>7</v>
+      </c>
+      <c r="H144" t="s">
+        <v>19</v>
+      </c>
+      <c r="I144" t="s">
+        <v>52</v>
+      </c>
+      <c r="J144" t="s">
+        <v>21</v>
+      </c>
+      <c r="K144" t="s">
+        <v>22</v>
+      </c>
+      <c r="L144">
+        <v>24</v>
+      </c>
+      <c r="M144">
+        <v>24.0</v>
+      </c>
+      <c r="N144" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145" t="s">
+        <v>14</v>
+      </c>
+      <c r="B145" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" t="s">
+        <v>28</v>
+      </c>
+      <c r="E145" t="s">
+        <v>18</v>
+      </c>
+      <c r="F145">
+        <v>25</v>
+      </c>
+      <c r="G145">
+        <v>7</v>
+      </c>
+      <c r="H145" t="s">
+        <v>19</v>
+      </c>
+      <c r="I145" t="s">
+        <v>52</v>
+      </c>
+      <c r="J145" t="s">
+        <v>21</v>
+      </c>
+      <c r="K145" t="s">
+        <v>22</v>
+      </c>
+      <c r="L145">
+        <v>24</v>
+      </c>
+      <c r="M145">
+        <v>18.0</v>
+      </c>
+      <c r="N145" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="A146" t="s">
+        <v>14</v>
+      </c>
+      <c r="B146" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146" t="s">
+        <v>18</v>
+      </c>
+      <c r="F146">
+        <v>25</v>
+      </c>
+      <c r="G146">
+        <v>7</v>
+      </c>
+      <c r="H146" t="s">
+        <v>19</v>
+      </c>
+      <c r="I146" t="s">
+        <v>53</v>
+      </c>
+      <c r="J146" t="s">
+        <v>21</v>
+      </c>
+      <c r="K146" t="s">
+        <v>22</v>
+      </c>
+      <c r="L146">
+        <v>25</v>
+      </c>
+      <c r="M146">
+        <v>18.0</v>
+      </c>
+      <c r="N146" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" t="s">
+        <v>24</v>
+      </c>
+      <c r="E147" t="s">
+        <v>18</v>
+      </c>
+      <c r="F147">
+        <v>10</v>
+      </c>
+      <c r="G147">
+        <v>3</v>
+      </c>
+      <c r="H147" t="s">
+        <v>19</v>
+      </c>
+      <c r="I147" t="s">
+        <v>53</v>
+      </c>
+      <c r="J147" t="s">
+        <v>21</v>
+      </c>
+      <c r="K147" t="s">
+        <v>22</v>
+      </c>
+      <c r="L147">
+        <v>25</v>
+      </c>
+      <c r="M147">
+        <v>6.0</v>
+      </c>
+      <c r="N147" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148" t="s">
+        <v>14</v>
+      </c>
+      <c r="B148" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" t="s">
+        <v>25</v>
+      </c>
+      <c r="E148" t="s">
+        <v>18</v>
+      </c>
+      <c r="F148">
+        <v>10</v>
+      </c>
+      <c r="G148">
+        <v>3</v>
+      </c>
+      <c r="H148" t="s">
+        <v>19</v>
+      </c>
+      <c r="I148" t="s">
+        <v>53</v>
+      </c>
+      <c r="J148" t="s">
+        <v>21</v>
+      </c>
+      <c r="K148" t="s">
+        <v>22</v>
+      </c>
+      <c r="L148">
+        <v>25</v>
+      </c>
+      <c r="M148">
+        <v>6.0</v>
+      </c>
+      <c r="N148" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="A149" t="s">
+        <v>14</v>
+      </c>
+      <c r="B149" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" t="s">
+        <v>26</v>
+      </c>
+      <c r="E149" t="s">
+        <v>18</v>
+      </c>
+      <c r="F149">
+        <v>25</v>
+      </c>
+      <c r="G149">
+        <v>7</v>
+      </c>
+      <c r="H149" t="s">
+        <v>19</v>
+      </c>
+      <c r="I149" t="s">
+        <v>53</v>
+      </c>
+      <c r="J149" t="s">
+        <v>21</v>
+      </c>
+      <c r="K149" t="s">
+        <v>22</v>
+      </c>
+      <c r="L149">
+        <v>25</v>
+      </c>
+      <c r="M149">
+        <v>20.0</v>
+      </c>
+      <c r="N149" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="A150" t="s">
+        <v>14</v>
+      </c>
+      <c r="B150" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" t="s">
+        <v>27</v>
+      </c>
+      <c r="E150" t="s">
+        <v>18</v>
+      </c>
+      <c r="F150">
+        <v>25</v>
+      </c>
+      <c r="G150">
+        <v>7</v>
+      </c>
+      <c r="H150" t="s">
+        <v>19</v>
+      </c>
+      <c r="I150" t="s">
+        <v>53</v>
+      </c>
+      <c r="J150" t="s">
+        <v>21</v>
+      </c>
+      <c r="K150" t="s">
+        <v>22</v>
+      </c>
+      <c r="L150">
+        <v>25</v>
+      </c>
+      <c r="M150">
+        <v>11.0</v>
+      </c>
+      <c r="N150" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="A151" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" t="s">
+        <v>18</v>
+      </c>
+      <c r="F151">
+        <v>25</v>
+      </c>
+      <c r="G151">
+        <v>7</v>
+      </c>
+      <c r="H151" t="s">
+        <v>19</v>
+      </c>
+      <c r="I151" t="s">
+        <v>53</v>
+      </c>
+      <c r="J151" t="s">
+        <v>21</v>
+      </c>
+      <c r="K151" t="s">
+        <v>22</v>
+      </c>
+      <c r="L151">
+        <v>25</v>
+      </c>
+      <c r="M151">
+        <v>17.0</v>
+      </c>
+      <c r="N151" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="A152" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152" t="s">
+        <v>15</v>
+      </c>
+      <c r="C152" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152" t="s">
+        <v>18</v>
+      </c>
+      <c r="F152">
+        <v>25</v>
+      </c>
+      <c r="G152">
+        <v>7</v>
+      </c>
+      <c r="H152" t="s">
+        <v>19</v>
+      </c>
+      <c r="I152" t="s">
+        <v>54</v>
+      </c>
+      <c r="J152" t="s">
+        <v>21</v>
+      </c>
+      <c r="K152" t="s">
+        <v>22</v>
+      </c>
+      <c r="L152">
+        <v>26</v>
+      </c>
+      <c r="M152">
+        <v>18.0</v>
+      </c>
+      <c r="N152" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153" t="s">
+        <v>14</v>
+      </c>
+      <c r="B153" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" t="s">
+        <v>24</v>
+      </c>
+      <c r="E153" t="s">
+        <v>18</v>
+      </c>
+      <c r="F153">
+        <v>10</v>
+      </c>
+      <c r="G153">
+        <v>3</v>
+      </c>
+      <c r="H153" t="s">
+        <v>19</v>
+      </c>
+      <c r="I153" t="s">
+        <v>54</v>
+      </c>
+      <c r="J153" t="s">
+        <v>21</v>
+      </c>
+      <c r="K153" t="s">
+        <v>22</v>
+      </c>
+      <c r="L153">
+        <v>26</v>
+      </c>
+      <c r="M153">
         <v>9.0</v>
       </c>
-      <c r="N121" t="s">
+      <c r="N153" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" t="s">
+        <v>25</v>
+      </c>
+      <c r="E154" t="s">
+        <v>18</v>
+      </c>
+      <c r="F154">
+        <v>10</v>
+      </c>
+      <c r="G154">
+        <v>3</v>
+      </c>
+      <c r="H154" t="s">
+        <v>19</v>
+      </c>
+      <c r="I154" t="s">
+        <v>54</v>
+      </c>
+      <c r="J154" t="s">
+        <v>21</v>
+      </c>
+      <c r="K154" t="s">
+        <v>22</v>
+      </c>
+      <c r="L154">
+        <v>26</v>
+      </c>
+      <c r="M154">
+        <v>9.0</v>
+      </c>
+      <c r="N154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="A155" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" t="s">
+        <v>26</v>
+      </c>
+      <c r="E155" t="s">
+        <v>18</v>
+      </c>
+      <c r="F155">
+        <v>25</v>
+      </c>
+      <c r="G155">
+        <v>7</v>
+      </c>
+      <c r="H155" t="s">
+        <v>19</v>
+      </c>
+      <c r="I155" t="s">
+        <v>54</v>
+      </c>
+      <c r="J155" t="s">
+        <v>21</v>
+      </c>
+      <c r="K155" t="s">
+        <v>22</v>
+      </c>
+      <c r="L155">
+        <v>26</v>
+      </c>
+      <c r="M155">
+        <v>22.0</v>
+      </c>
+      <c r="N155" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="A156" t="s">
+        <v>14</v>
+      </c>
+      <c r="B156" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" t="s">
+        <v>27</v>
+      </c>
+      <c r="E156" t="s">
+        <v>18</v>
+      </c>
+      <c r="F156">
+        <v>25</v>
+      </c>
+      <c r="G156">
+        <v>7</v>
+      </c>
+      <c r="H156" t="s">
+        <v>19</v>
+      </c>
+      <c r="I156" t="s">
+        <v>54</v>
+      </c>
+      <c r="J156" t="s">
+        <v>21</v>
+      </c>
+      <c r="K156" t="s">
+        <v>22</v>
+      </c>
+      <c r="L156">
+        <v>26</v>
+      </c>
+      <c r="M156">
+        <v>22.0</v>
+      </c>
+      <c r="N156" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="A157" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" t="s">
+        <v>28</v>
+      </c>
+      <c r="E157" t="s">
+        <v>18</v>
+      </c>
+      <c r="F157">
+        <v>25</v>
+      </c>
+      <c r="G157">
+        <v>7</v>
+      </c>
+      <c r="H157" t="s">
+        <v>19</v>
+      </c>
+      <c r="I157" t="s">
+        <v>54</v>
+      </c>
+      <c r="J157" t="s">
+        <v>21</v>
+      </c>
+      <c r="K157" t="s">
+        <v>22</v>
+      </c>
+      <c r="L157">
+        <v>26</v>
+      </c>
+      <c r="M157">
+        <v>20.0</v>
+      </c>
+      <c r="N157" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
+      <c r="A158" t="s">
+        <v>14</v>
+      </c>
+      <c r="B158" t="s">
+        <v>15</v>
+      </c>
+      <c r="C158" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" t="s">
+        <v>17</v>
+      </c>
+      <c r="E158" t="s">
+        <v>18</v>
+      </c>
+      <c r="F158">
+        <v>25</v>
+      </c>
+      <c r="G158">
+        <v>7</v>
+      </c>
+      <c r="H158" t="s">
+        <v>19</v>
+      </c>
+      <c r="I158" t="s">
+        <v>55</v>
+      </c>
+      <c r="J158" t="s">
+        <v>21</v>
+      </c>
+      <c r="K158" t="s">
+        <v>22</v>
+      </c>
+      <c r="L158">
+        <v>27</v>
+      </c>
+      <c r="M158">
+        <v>15.0</v>
+      </c>
+      <c r="N158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
+      <c r="A159" t="s">
+        <v>14</v>
+      </c>
+      <c r="B159" t="s">
+        <v>15</v>
+      </c>
+      <c r="C159" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" t="s">
+        <v>24</v>
+      </c>
+      <c r="E159" t="s">
+        <v>18</v>
+      </c>
+      <c r="F159">
+        <v>10</v>
+      </c>
+      <c r="G159">
+        <v>3</v>
+      </c>
+      <c r="H159" t="s">
+        <v>19</v>
+      </c>
+      <c r="I159" t="s">
+        <v>55</v>
+      </c>
+      <c r="J159" t="s">
+        <v>21</v>
+      </c>
+      <c r="K159" t="s">
+        <v>22</v>
+      </c>
+      <c r="L159">
+        <v>27</v>
+      </c>
+      <c r="M159">
+        <v>2.0</v>
+      </c>
+      <c r="N159" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="A160" t="s">
+        <v>14</v>
+      </c>
+      <c r="B160" t="s">
+        <v>15</v>
+      </c>
+      <c r="C160" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" t="s">
+        <v>25</v>
+      </c>
+      <c r="E160" t="s">
+        <v>18</v>
+      </c>
+      <c r="F160">
+        <v>10</v>
+      </c>
+      <c r="G160">
+        <v>3</v>
+      </c>
+      <c r="H160" t="s">
+        <v>19</v>
+      </c>
+      <c r="I160" t="s">
+        <v>55</v>
+      </c>
+      <c r="J160" t="s">
+        <v>21</v>
+      </c>
+      <c r="K160" t="s">
+        <v>22</v>
+      </c>
+      <c r="L160">
+        <v>27</v>
+      </c>
+      <c r="M160">
+        <v>2.0</v>
+      </c>
+      <c r="N160" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
+      <c r="A161" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" t="s">
+        <v>26</v>
+      </c>
+      <c r="E161" t="s">
+        <v>18</v>
+      </c>
+      <c r="F161">
+        <v>25</v>
+      </c>
+      <c r="G161">
+        <v>7</v>
+      </c>
+      <c r="H161" t="s">
+        <v>19</v>
+      </c>
+      <c r="I161" t="s">
+        <v>55</v>
+      </c>
+      <c r="J161" t="s">
+        <v>21</v>
+      </c>
+      <c r="K161" t="s">
+        <v>22</v>
+      </c>
+      <c r="L161">
+        <v>27</v>
+      </c>
+      <c r="M161">
+        <v>14.5</v>
+      </c>
+      <c r="N161" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
+      <c r="A162" t="s">
+        <v>14</v>
+      </c>
+      <c r="B162" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162" t="s">
+        <v>27</v>
+      </c>
+      <c r="E162" t="s">
+        <v>18</v>
+      </c>
+      <c r="F162">
+        <v>25</v>
+      </c>
+      <c r="G162">
+        <v>7</v>
+      </c>
+      <c r="H162" t="s">
+        <v>19</v>
+      </c>
+      <c r="I162" t="s">
+        <v>55</v>
+      </c>
+      <c r="J162" t="s">
+        <v>21</v>
+      </c>
+      <c r="K162" t="s">
+        <v>22</v>
+      </c>
+      <c r="L162">
+        <v>27</v>
+      </c>
+      <c r="M162">
+        <v>15.5</v>
+      </c>
+      <c r="N162" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
+      <c r="A163" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163" t="s">
+        <v>28</v>
+      </c>
+      <c r="E163" t="s">
+        <v>18</v>
+      </c>
+      <c r="F163">
+        <v>25</v>
+      </c>
+      <c r="G163">
+        <v>7</v>
+      </c>
+      <c r="H163" t="s">
+        <v>19</v>
+      </c>
+      <c r="I163" t="s">
+        <v>55</v>
+      </c>
+      <c r="J163" t="s">
+        <v>21</v>
+      </c>
+      <c r="K163" t="s">
+        <v>22</v>
+      </c>
+      <c r="L163">
+        <v>27</v>
+      </c>
+      <c r="M163">
+        <v>17.0</v>
+      </c>
+      <c r="N163" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
+      <c r="A164" t="s">
+        <v>14</v>
+      </c>
+      <c r="B164" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164" t="s">
+        <v>16</v>
+      </c>
+      <c r="D164" t="s">
+        <v>17</v>
+      </c>
+      <c r="E164" t="s">
+        <v>18</v>
+      </c>
+      <c r="F164">
+        <v>25</v>
+      </c>
+      <c r="G164">
+        <v>7</v>
+      </c>
+      <c r="H164" t="s">
+        <v>19</v>
+      </c>
+      <c r="I164" t="s">
+        <v>56</v>
+      </c>
+      <c r="J164" t="s">
+        <v>21</v>
+      </c>
+      <c r="K164" t="s">
+        <v>22</v>
+      </c>
+      <c r="L164">
+        <v>28</v>
+      </c>
+      <c r="M164">
+        <v>5.0</v>
+      </c>
+      <c r="N164" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
+      <c r="A165" t="s">
+        <v>14</v>
+      </c>
+      <c r="B165" t="s">
+        <v>15</v>
+      </c>
+      <c r="C165" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" t="s">
+        <v>24</v>
+      </c>
+      <c r="E165" t="s">
+        <v>18</v>
+      </c>
+      <c r="F165">
+        <v>10</v>
+      </c>
+      <c r="G165">
+        <v>3</v>
+      </c>
+      <c r="H165" t="s">
+        <v>19</v>
+      </c>
+      <c r="I165" t="s">
+        <v>56</v>
+      </c>
+      <c r="J165" t="s">
+        <v>21</v>
+      </c>
+      <c r="K165" t="s">
+        <v>22</v>
+      </c>
+      <c r="L165">
+        <v>28</v>
+      </c>
+      <c r="M165">
+        <v>6.0</v>
+      </c>
+      <c r="N165" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
+      <c r="A166" t="s">
+        <v>14</v>
+      </c>
+      <c r="B166" t="s">
+        <v>15</v>
+      </c>
+      <c r="C166" t="s">
+        <v>16</v>
+      </c>
+      <c r="D166" t="s">
+        <v>25</v>
+      </c>
+      <c r="E166" t="s">
+        <v>18</v>
+      </c>
+      <c r="F166">
+        <v>10</v>
+      </c>
+      <c r="G166">
+        <v>3</v>
+      </c>
+      <c r="H166" t="s">
+        <v>19</v>
+      </c>
+      <c r="I166" t="s">
+        <v>56</v>
+      </c>
+      <c r="J166" t="s">
+        <v>21</v>
+      </c>
+      <c r="K166" t="s">
+        <v>22</v>
+      </c>
+      <c r="L166">
+        <v>28</v>
+      </c>
+      <c r="M166">
+        <v>6.0</v>
+      </c>
+      <c r="N166" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
+      <c r="A167" t="s">
+        <v>14</v>
+      </c>
+      <c r="B167" t="s">
+        <v>15</v>
+      </c>
+      <c r="C167" t="s">
+        <v>16</v>
+      </c>
+      <c r="D167" t="s">
+        <v>26</v>
+      </c>
+      <c r="E167" t="s">
+        <v>18</v>
+      </c>
+      <c r="F167">
+        <v>25</v>
+      </c>
+      <c r="G167">
+        <v>7</v>
+      </c>
+      <c r="H167" t="s">
+        <v>19</v>
+      </c>
+      <c r="I167" t="s">
+        <v>56</v>
+      </c>
+      <c r="J167" t="s">
+        <v>21</v>
+      </c>
+      <c r="K167" t="s">
+        <v>22</v>
+      </c>
+      <c r="L167">
+        <v>28</v>
+      </c>
+      <c r="M167">
+        <v>25.0</v>
+      </c>
+      <c r="N167" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
+      <c r="A168" t="s">
+        <v>14</v>
+      </c>
+      <c r="B168" t="s">
+        <v>15</v>
+      </c>
+      <c r="C168" t="s">
+        <v>16</v>
+      </c>
+      <c r="D168" t="s">
+        <v>27</v>
+      </c>
+      <c r="E168" t="s">
+        <v>18</v>
+      </c>
+      <c r="F168">
+        <v>25</v>
+      </c>
+      <c r="G168">
+        <v>7</v>
+      </c>
+      <c r="H168" t="s">
+        <v>19</v>
+      </c>
+      <c r="I168" t="s">
+        <v>56</v>
+      </c>
+      <c r="J168" t="s">
+        <v>21</v>
+      </c>
+      <c r="K168" t="s">
+        <v>22</v>
+      </c>
+      <c r="L168">
+        <v>28</v>
+      </c>
+      <c r="M168">
+        <v>0.0</v>
+      </c>
+      <c r="N168" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
+      <c r="A169" t="s">
+        <v>14</v>
+      </c>
+      <c r="B169" t="s">
+        <v>15</v>
+      </c>
+      <c r="C169" t="s">
+        <v>16</v>
+      </c>
+      <c r="D169" t="s">
+        <v>28</v>
+      </c>
+      <c r="E169" t="s">
+        <v>18</v>
+      </c>
+      <c r="F169">
+        <v>25</v>
+      </c>
+      <c r="G169">
+        <v>7</v>
+      </c>
+      <c r="H169" t="s">
+        <v>19</v>
+      </c>
+      <c r="I169" t="s">
+        <v>56</v>
+      </c>
+      <c r="J169" t="s">
+        <v>21</v>
+      </c>
+      <c r="K169" t="s">
+        <v>22</v>
+      </c>
+      <c r="L169">
+        <v>28</v>
+      </c>
+      <c r="M169">
+        <v>20.0</v>
+      </c>
+      <c r="N169" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
+      <c r="A170" t="s">
+        <v>14</v>
+      </c>
+      <c r="B170" t="s">
+        <v>15</v>
+      </c>
+      <c r="C170" t="s">
+        <v>16</v>
+      </c>
+      <c r="D170" t="s">
+        <v>17</v>
+      </c>
+      <c r="E170" t="s">
+        <v>18</v>
+      </c>
+      <c r="F170">
+        <v>25</v>
+      </c>
+      <c r="G170">
+        <v>7</v>
+      </c>
+      <c r="H170" t="s">
+        <v>19</v>
+      </c>
+      <c r="I170" t="s">
+        <v>57</v>
+      </c>
+      <c r="J170" t="s">
+        <v>21</v>
+      </c>
+      <c r="K170" t="s">
+        <v>22</v>
+      </c>
+      <c r="L170">
+        <v>29</v>
+      </c>
+      <c r="M170">
+        <v>18.0</v>
+      </c>
+      <c r="N170" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
+      <c r="A171" t="s">
+        <v>14</v>
+      </c>
+      <c r="B171" t="s">
+        <v>15</v>
+      </c>
+      <c r="C171" t="s">
+        <v>16</v>
+      </c>
+      <c r="D171" t="s">
+        <v>24</v>
+      </c>
+      <c r="E171" t="s">
+        <v>18</v>
+      </c>
+      <c r="F171">
+        <v>10</v>
+      </c>
+      <c r="G171">
+        <v>3</v>
+      </c>
+      <c r="H171" t="s">
+        <v>19</v>
+      </c>
+      <c r="I171" t="s">
+        <v>57</v>
+      </c>
+      <c r="J171" t="s">
+        <v>21</v>
+      </c>
+      <c r="K171" t="s">
+        <v>22</v>
+      </c>
+      <c r="L171">
+        <v>29</v>
+      </c>
+      <c r="M171">
+        <v>8.0</v>
+      </c>
+      <c r="N171" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
+      <c r="A172" t="s">
+        <v>14</v>
+      </c>
+      <c r="B172" t="s">
+        <v>15</v>
+      </c>
+      <c r="C172" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" t="s">
+        <v>25</v>
+      </c>
+      <c r="E172" t="s">
+        <v>18</v>
+      </c>
+      <c r="F172">
+        <v>10</v>
+      </c>
+      <c r="G172">
+        <v>3</v>
+      </c>
+      <c r="H172" t="s">
+        <v>19</v>
+      </c>
+      <c r="I172" t="s">
+        <v>57</v>
+      </c>
+      <c r="J172" t="s">
+        <v>21</v>
+      </c>
+      <c r="K172" t="s">
+        <v>22</v>
+      </c>
+      <c r="L172">
+        <v>29</v>
+      </c>
+      <c r="M172">
+        <v>8.0</v>
+      </c>
+      <c r="N172" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
+      <c r="A173" t="s">
+        <v>14</v>
+      </c>
+      <c r="B173" t="s">
+        <v>15</v>
+      </c>
+      <c r="C173" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" t="s">
+        <v>26</v>
+      </c>
+      <c r="E173" t="s">
+        <v>18</v>
+      </c>
+      <c r="F173">
+        <v>25</v>
+      </c>
+      <c r="G173">
+        <v>7</v>
+      </c>
+      <c r="H173" t="s">
+        <v>19</v>
+      </c>
+      <c r="I173" t="s">
+        <v>57</v>
+      </c>
+      <c r="J173" t="s">
+        <v>21</v>
+      </c>
+      <c r="K173" t="s">
+        <v>22</v>
+      </c>
+      <c r="L173">
+        <v>29</v>
+      </c>
+      <c r="M173">
+        <v>24.0</v>
+      </c>
+      <c r="N173" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
+      <c r="A174" t="s">
+        <v>14</v>
+      </c>
+      <c r="B174" t="s">
+        <v>15</v>
+      </c>
+      <c r="C174" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" t="s">
+        <v>27</v>
+      </c>
+      <c r="E174" t="s">
+        <v>18</v>
+      </c>
+      <c r="F174">
+        <v>25</v>
+      </c>
+      <c r="G174">
+        <v>7</v>
+      </c>
+      <c r="H174" t="s">
+        <v>19</v>
+      </c>
+      <c r="I174" t="s">
+        <v>57</v>
+      </c>
+      <c r="J174" t="s">
+        <v>21</v>
+      </c>
+      <c r="K174" t="s">
+        <v>22</v>
+      </c>
+      <c r="L174">
+        <v>29</v>
+      </c>
+      <c r="M174">
+        <v>22.5</v>
+      </c>
+      <c r="N174" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
+      <c r="A175" t="s">
+        <v>14</v>
+      </c>
+      <c r="B175" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" t="s">
+        <v>28</v>
+      </c>
+      <c r="E175" t="s">
+        <v>18</v>
+      </c>
+      <c r="F175">
+        <v>25</v>
+      </c>
+      <c r="G175">
+        <v>7</v>
+      </c>
+      <c r="H175" t="s">
+        <v>19</v>
+      </c>
+      <c r="I175" t="s">
+        <v>57</v>
+      </c>
+      <c r="J175" t="s">
+        <v>21</v>
+      </c>
+      <c r="K175" t="s">
+        <v>22</v>
+      </c>
+      <c r="L175">
+        <v>29</v>
+      </c>
+      <c r="M175">
+        <v>18.0</v>
+      </c>
+      <c r="N175" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
+      <c r="A176" t="s">
+        <v>14</v>
+      </c>
+      <c r="B176" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176" t="s">
+        <v>16</v>
+      </c>
+      <c r="D176" t="s">
+        <v>17</v>
+      </c>
+      <c r="E176" t="s">
+        <v>18</v>
+      </c>
+      <c r="F176">
+        <v>25</v>
+      </c>
+      <c r="G176">
+        <v>7</v>
+      </c>
+      <c r="H176" t="s">
+        <v>19</v>
+      </c>
+      <c r="I176" t="s">
+        <v>58</v>
+      </c>
+      <c r="J176" t="s">
+        <v>21</v>
+      </c>
+      <c r="K176" t="s">
+        <v>22</v>
+      </c>
+      <c r="L176">
+        <v>30</v>
+      </c>
+      <c r="M176">
+        <v>20.0</v>
+      </c>
+      <c r="N176" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14">
+      <c r="A177" t="s">
+        <v>14</v>
+      </c>
+      <c r="B177" t="s">
+        <v>15</v>
+      </c>
+      <c r="C177" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" t="s">
+        <v>24</v>
+      </c>
+      <c r="E177" t="s">
+        <v>18</v>
+      </c>
+      <c r="F177">
+        <v>10</v>
+      </c>
+      <c r="G177">
+        <v>3</v>
+      </c>
+      <c r="H177" t="s">
+        <v>19</v>
+      </c>
+      <c r="I177" t="s">
+        <v>58</v>
+      </c>
+      <c r="J177" t="s">
+        <v>21</v>
+      </c>
+      <c r="K177" t="s">
+        <v>22</v>
+      </c>
+      <c r="L177">
+        <v>30</v>
+      </c>
+      <c r="M177">
+        <v>10.0</v>
+      </c>
+      <c r="N177" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14">
+      <c r="A178" t="s">
+        <v>14</v>
+      </c>
+      <c r="B178" t="s">
+        <v>15</v>
+      </c>
+      <c r="C178" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" t="s">
+        <v>25</v>
+      </c>
+      <c r="E178" t="s">
+        <v>18</v>
+      </c>
+      <c r="F178">
+        <v>10</v>
+      </c>
+      <c r="G178">
+        <v>3</v>
+      </c>
+      <c r="H178" t="s">
+        <v>19</v>
+      </c>
+      <c r="I178" t="s">
+        <v>58</v>
+      </c>
+      <c r="J178" t="s">
+        <v>21</v>
+      </c>
+      <c r="K178" t="s">
+        <v>22</v>
+      </c>
+      <c r="L178">
+        <v>30</v>
+      </c>
+      <c r="M178">
+        <v>9.0</v>
+      </c>
+      <c r="N178" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14">
+      <c r="A179" t="s">
+        <v>14</v>
+      </c>
+      <c r="B179" t="s">
+        <v>15</v>
+      </c>
+      <c r="C179" t="s">
+        <v>16</v>
+      </c>
+      <c r="D179" t="s">
+        <v>26</v>
+      </c>
+      <c r="E179" t="s">
+        <v>18</v>
+      </c>
+      <c r="F179">
+        <v>25</v>
+      </c>
+      <c r="G179">
+        <v>7</v>
+      </c>
+      <c r="H179" t="s">
+        <v>19</v>
+      </c>
+      <c r="I179" t="s">
+        <v>58</v>
+      </c>
+      <c r="J179" t="s">
+        <v>21</v>
+      </c>
+      <c r="K179" t="s">
+        <v>22</v>
+      </c>
+      <c r="L179">
+        <v>30</v>
+      </c>
+      <c r="M179">
+        <v>24.0</v>
+      </c>
+      <c r="N179" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14">
+      <c r="A180" t="s">
+        <v>14</v>
+      </c>
+      <c r="B180" t="s">
+        <v>15</v>
+      </c>
+      <c r="C180" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" t="s">
+        <v>27</v>
+      </c>
+      <c r="E180" t="s">
+        <v>18</v>
+      </c>
+      <c r="F180">
+        <v>25</v>
+      </c>
+      <c r="G180">
+        <v>7</v>
+      </c>
+      <c r="H180" t="s">
+        <v>19</v>
+      </c>
+      <c r="I180" t="s">
+        <v>58</v>
+      </c>
+      <c r="J180" t="s">
+        <v>21</v>
+      </c>
+      <c r="K180" t="s">
+        <v>22</v>
+      </c>
+      <c r="L180">
+        <v>30</v>
+      </c>
+      <c r="M180">
+        <v>23.0</v>
+      </c>
+      <c r="N180" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14">
+      <c r="A181" t="s">
+        <v>14</v>
+      </c>
+      <c r="B181" t="s">
+        <v>15</v>
+      </c>
+      <c r="C181" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" t="s">
+        <v>28</v>
+      </c>
+      <c r="E181" t="s">
+        <v>18</v>
+      </c>
+      <c r="F181">
+        <v>25</v>
+      </c>
+      <c r="G181">
+        <v>7</v>
+      </c>
+      <c r="H181" t="s">
+        <v>19</v>
+      </c>
+      <c r="I181" t="s">
+        <v>58</v>
+      </c>
+      <c r="J181" t="s">
+        <v>21</v>
+      </c>
+      <c r="K181" t="s">
+        <v>22</v>
+      </c>
+      <c r="L181">
+        <v>30</v>
+      </c>
+      <c r="M181">
+        <v>17.0</v>
+      </c>
+      <c r="N181" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14">
+      <c r="A182" t="s">
+        <v>14</v>
+      </c>
+      <c r="B182" t="s">
+        <v>15</v>
+      </c>
+      <c r="C182" t="s">
+        <v>16</v>
+      </c>
+      <c r="D182" t="s">
+        <v>17</v>
+      </c>
+      <c r="E182" t="s">
+        <v>18</v>
+      </c>
+      <c r="F182">
+        <v>25</v>
+      </c>
+      <c r="G182">
+        <v>7</v>
+      </c>
+      <c r="H182" t="s">
+        <v>19</v>
+      </c>
+      <c r="I182" t="s">
+        <v>59</v>
+      </c>
+      <c r="J182" t="s">
+        <v>21</v>
+      </c>
+      <c r="K182" t="s">
+        <v>22</v>
+      </c>
+      <c r="L182">
+        <v>31</v>
+      </c>
+      <c r="M182">
+        <v>0.0</v>
+      </c>
+      <c r="N182" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14">
+      <c r="A183" t="s">
+        <v>14</v>
+      </c>
+      <c r="B183" t="s">
+        <v>15</v>
+      </c>
+      <c r="C183" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183" t="s">
+        <v>24</v>
+      </c>
+      <c r="E183" t="s">
+        <v>18</v>
+      </c>
+      <c r="F183">
+        <v>10</v>
+      </c>
+      <c r="G183">
+        <v>3</v>
+      </c>
+      <c r="H183" t="s">
+        <v>19</v>
+      </c>
+      <c r="I183" t="s">
+        <v>59</v>
+      </c>
+      <c r="J183" t="s">
+        <v>21</v>
+      </c>
+      <c r="K183" t="s">
+        <v>22</v>
+      </c>
+      <c r="L183">
+        <v>31</v>
+      </c>
+      <c r="M183">
+        <v>0.0</v>
+      </c>
+      <c r="N183" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14">
+      <c r="A184" t="s">
+        <v>14</v>
+      </c>
+      <c r="B184" t="s">
+        <v>15</v>
+      </c>
+      <c r="C184" t="s">
+        <v>16</v>
+      </c>
+      <c r="D184" t="s">
+        <v>25</v>
+      </c>
+      <c r="E184" t="s">
+        <v>18</v>
+      </c>
+      <c r="F184">
+        <v>10</v>
+      </c>
+      <c r="G184">
+        <v>3</v>
+      </c>
+      <c r="H184" t="s">
+        <v>19</v>
+      </c>
+      <c r="I184" t="s">
+        <v>59</v>
+      </c>
+      <c r="J184" t="s">
+        <v>21</v>
+      </c>
+      <c r="K184" t="s">
+        <v>22</v>
+      </c>
+      <c r="L184">
+        <v>31</v>
+      </c>
+      <c r="M184">
+        <v>0.0</v>
+      </c>
+      <c r="N184" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14">
+      <c r="A185" t="s">
+        <v>14</v>
+      </c>
+      <c r="B185" t="s">
+        <v>15</v>
+      </c>
+      <c r="C185" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" t="s">
+        <v>26</v>
+      </c>
+      <c r="E185" t="s">
+        <v>18</v>
+      </c>
+      <c r="F185">
+        <v>25</v>
+      </c>
+      <c r="G185">
+        <v>7</v>
+      </c>
+      <c r="H185" t="s">
+        <v>19</v>
+      </c>
+      <c r="I185" t="s">
+        <v>59</v>
+      </c>
+      <c r="J185" t="s">
+        <v>21</v>
+      </c>
+      <c r="K185" t="s">
+        <v>22</v>
+      </c>
+      <c r="L185">
+        <v>31</v>
+      </c>
+      <c r="M185">
+        <v>0.0</v>
+      </c>
+      <c r="N185" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14">
+      <c r="A186" t="s">
+        <v>14</v>
+      </c>
+      <c r="B186" t="s">
+        <v>15</v>
+      </c>
+      <c r="C186" t="s">
+        <v>16</v>
+      </c>
+      <c r="D186" t="s">
+        <v>27</v>
+      </c>
+      <c r="E186" t="s">
+        <v>18</v>
+      </c>
+      <c r="F186">
+        <v>25</v>
+      </c>
+      <c r="G186">
+        <v>7</v>
+      </c>
+      <c r="H186" t="s">
+        <v>19</v>
+      </c>
+      <c r="I186" t="s">
+        <v>59</v>
+      </c>
+      <c r="J186" t="s">
+        <v>21</v>
+      </c>
+      <c r="K186" t="s">
+        <v>22</v>
+      </c>
+      <c r="L186">
+        <v>31</v>
+      </c>
+      <c r="M186">
+        <v>2.0</v>
+      </c>
+      <c r="N186" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14">
+      <c r="A187" t="s">
+        <v>14</v>
+      </c>
+      <c r="B187" t="s">
+        <v>15</v>
+      </c>
+      <c r="C187" t="s">
+        <v>16</v>
+      </c>
+      <c r="D187" t="s">
+        <v>28</v>
+      </c>
+      <c r="E187" t="s">
+        <v>18</v>
+      </c>
+      <c r="F187">
+        <v>25</v>
+      </c>
+      <c r="G187">
+        <v>7</v>
+      </c>
+      <c r="H187" t="s">
+        <v>19</v>
+      </c>
+      <c r="I187" t="s">
+        <v>59</v>
+      </c>
+      <c r="J187" t="s">
+        <v>21</v>
+      </c>
+      <c r="K187" t="s">
+        <v>22</v>
+      </c>
+      <c r="L187">
+        <v>31</v>
+      </c>
+      <c r="M187">
+        <v>17.0</v>
+      </c>
+      <c r="N187" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14">
+      <c r="A188" t="s">
+        <v>14</v>
+      </c>
+      <c r="B188" t="s">
+        <v>15</v>
+      </c>
+      <c r="C188" t="s">
+        <v>16</v>
+      </c>
+      <c r="D188" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" t="s">
+        <v>18</v>
+      </c>
+      <c r="F188">
+        <v>25</v>
+      </c>
+      <c r="G188">
+        <v>7</v>
+      </c>
+      <c r="H188" t="s">
+        <v>19</v>
+      </c>
+      <c r="I188" t="s">
+        <v>60</v>
+      </c>
+      <c r="J188" t="s">
+        <v>21</v>
+      </c>
+      <c r="K188" t="s">
+        <v>22</v>
+      </c>
+      <c r="L188">
+        <v>32</v>
+      </c>
+      <c r="M188">
+        <v>25.0</v>
+      </c>
+      <c r="N188" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
+      <c r="A189" t="s">
+        <v>14</v>
+      </c>
+      <c r="B189" t="s">
+        <v>15</v>
+      </c>
+      <c r="C189" t="s">
+        <v>16</v>
+      </c>
+      <c r="D189" t="s">
+        <v>24</v>
+      </c>
+      <c r="E189" t="s">
+        <v>18</v>
+      </c>
+      <c r="F189">
+        <v>10</v>
+      </c>
+      <c r="G189">
+        <v>3</v>
+      </c>
+      <c r="H189" t="s">
+        <v>19</v>
+      </c>
+      <c r="I189" t="s">
+        <v>60</v>
+      </c>
+      <c r="J189" t="s">
+        <v>21</v>
+      </c>
+      <c r="K189" t="s">
+        <v>22</v>
+      </c>
+      <c r="L189">
+        <v>32</v>
+      </c>
+      <c r="M189">
+        <v>10.0</v>
+      </c>
+      <c r="N189" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14">
+      <c r="A190" t="s">
+        <v>14</v>
+      </c>
+      <c r="B190" t="s">
+        <v>15</v>
+      </c>
+      <c r="C190" t="s">
+        <v>16</v>
+      </c>
+      <c r="D190" t="s">
+        <v>25</v>
+      </c>
+      <c r="E190" t="s">
+        <v>18</v>
+      </c>
+      <c r="F190">
+        <v>10</v>
+      </c>
+      <c r="G190">
+        <v>3</v>
+      </c>
+      <c r="H190" t="s">
+        <v>19</v>
+      </c>
+      <c r="I190" t="s">
+        <v>60</v>
+      </c>
+      <c r="J190" t="s">
+        <v>21</v>
+      </c>
+      <c r="K190" t="s">
+        <v>22</v>
+      </c>
+      <c r="L190">
+        <v>32</v>
+      </c>
+      <c r="M190">
+        <v>10.0</v>
+      </c>
+      <c r="N190" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14">
+      <c r="A191" t="s">
+        <v>14</v>
+      </c>
+      <c r="B191" t="s">
+        <v>15</v>
+      </c>
+      <c r="C191" t="s">
+        <v>16</v>
+      </c>
+      <c r="D191" t="s">
+        <v>26</v>
+      </c>
+      <c r="E191" t="s">
+        <v>18</v>
+      </c>
+      <c r="F191">
+        <v>25</v>
+      </c>
+      <c r="G191">
+        <v>7</v>
+      </c>
+      <c r="H191" t="s">
+        <v>19</v>
+      </c>
+      <c r="I191" t="s">
+        <v>60</v>
+      </c>
+      <c r="J191" t="s">
+        <v>21</v>
+      </c>
+      <c r="K191" t="s">
+        <v>22</v>
+      </c>
+      <c r="L191">
+        <v>32</v>
+      </c>
+      <c r="M191">
+        <v>24.5</v>
+      </c>
+      <c r="N191" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14">
+      <c r="A192" t="s">
+        <v>14</v>
+      </c>
+      <c r="B192" t="s">
+        <v>15</v>
+      </c>
+      <c r="C192" t="s">
+        <v>16</v>
+      </c>
+      <c r="D192" t="s">
+        <v>27</v>
+      </c>
+      <c r="E192" t="s">
+        <v>18</v>
+      </c>
+      <c r="F192">
+        <v>25</v>
+      </c>
+      <c r="G192">
+        <v>7</v>
+      </c>
+      <c r="H192" t="s">
+        <v>19</v>
+      </c>
+      <c r="I192" t="s">
+        <v>60</v>
+      </c>
+      <c r="J192" t="s">
+        <v>21</v>
+      </c>
+      <c r="K192" t="s">
+        <v>22</v>
+      </c>
+      <c r="L192">
+        <v>32</v>
+      </c>
+      <c r="M192">
+        <v>23.0</v>
+      </c>
+      <c r="N192" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14">
+      <c r="A193" t="s">
+        <v>14</v>
+      </c>
+      <c r="B193" t="s">
+        <v>15</v>
+      </c>
+      <c r="C193" t="s">
+        <v>16</v>
+      </c>
+      <c r="D193" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193" t="s">
+        <v>18</v>
+      </c>
+      <c r="F193">
+        <v>25</v>
+      </c>
+      <c r="G193">
+        <v>7</v>
+      </c>
+      <c r="H193" t="s">
+        <v>19</v>
+      </c>
+      <c r="I193" t="s">
+        <v>60</v>
+      </c>
+      <c r="J193" t="s">
+        <v>21</v>
+      </c>
+      <c r="K193" t="s">
+        <v>22</v>
+      </c>
+      <c r="L193">
+        <v>32</v>
+      </c>
+      <c r="M193">
+        <v>23.0</v>
+      </c>
+      <c r="N193" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14">
+      <c r="A194" t="s">
+        <v>14</v>
+      </c>
+      <c r="B194" t="s">
+        <v>15</v>
+      </c>
+      <c r="C194" t="s">
+        <v>16</v>
+      </c>
+      <c r="D194" t="s">
+        <v>17</v>
+      </c>
+      <c r="E194" t="s">
+        <v>18</v>
+      </c>
+      <c r="F194">
+        <v>25</v>
+      </c>
+      <c r="G194">
+        <v>7</v>
+      </c>
+      <c r="H194" t="s">
+        <v>19</v>
+      </c>
+      <c r="I194" t="s">
+        <v>61</v>
+      </c>
+      <c r="J194" t="s">
+        <v>21</v>
+      </c>
+      <c r="K194" t="s">
+        <v>22</v>
+      </c>
+      <c r="L194">
+        <v>33</v>
+      </c>
+      <c r="M194">
+        <v>20.0</v>
+      </c>
+      <c r="N194" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14">
+      <c r="A195" t="s">
+        <v>14</v>
+      </c>
+      <c r="B195" t="s">
+        <v>15</v>
+      </c>
+      <c r="C195" t="s">
+        <v>16</v>
+      </c>
+      <c r="D195" t="s">
+        <v>24</v>
+      </c>
+      <c r="E195" t="s">
+        <v>18</v>
+      </c>
+      <c r="F195">
+        <v>10</v>
+      </c>
+      <c r="G195">
+        <v>3</v>
+      </c>
+      <c r="H195" t="s">
+        <v>19</v>
+      </c>
+      <c r="I195" t="s">
+        <v>61</v>
+      </c>
+      <c r="J195" t="s">
+        <v>21</v>
+      </c>
+      <c r="K195" t="s">
+        <v>22</v>
+      </c>
+      <c r="L195">
+        <v>33</v>
+      </c>
+      <c r="M195">
+        <v>0.0</v>
+      </c>
+      <c r="N195" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14">
+      <c r="A196" t="s">
+        <v>14</v>
+      </c>
+      <c r="B196" t="s">
+        <v>15</v>
+      </c>
+      <c r="C196" t="s">
+        <v>16</v>
+      </c>
+      <c r="D196" t="s">
+        <v>25</v>
+      </c>
+      <c r="E196" t="s">
+        <v>18</v>
+      </c>
+      <c r="F196">
+        <v>10</v>
+      </c>
+      <c r="G196">
+        <v>3</v>
+      </c>
+      <c r="H196" t="s">
+        <v>19</v>
+      </c>
+      <c r="I196" t="s">
+        <v>61</v>
+      </c>
+      <c r="J196" t="s">
+        <v>21</v>
+      </c>
+      <c r="K196" t="s">
+        <v>22</v>
+      </c>
+      <c r="L196">
+        <v>33</v>
+      </c>
+      <c r="M196">
+        <v>0.0</v>
+      </c>
+      <c r="N196" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14">
+      <c r="A197" t="s">
+        <v>14</v>
+      </c>
+      <c r="B197" t="s">
+        <v>15</v>
+      </c>
+      <c r="C197" t="s">
+        <v>16</v>
+      </c>
+      <c r="D197" t="s">
+        <v>26</v>
+      </c>
+      <c r="E197" t="s">
+        <v>18</v>
+      </c>
+      <c r="F197">
+        <v>25</v>
+      </c>
+      <c r="G197">
+        <v>7</v>
+      </c>
+      <c r="H197" t="s">
+        <v>19</v>
+      </c>
+      <c r="I197" t="s">
+        <v>61</v>
+      </c>
+      <c r="J197" t="s">
+        <v>21</v>
+      </c>
+      <c r="K197" t="s">
+        <v>22</v>
+      </c>
+      <c r="L197">
+        <v>33</v>
+      </c>
+      <c r="M197">
+        <v>6.0</v>
+      </c>
+      <c r="N197" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14">
+      <c r="A198" t="s">
+        <v>14</v>
+      </c>
+      <c r="B198" t="s">
+        <v>15</v>
+      </c>
+      <c r="C198" t="s">
+        <v>16</v>
+      </c>
+      <c r="D198" t="s">
+        <v>27</v>
+      </c>
+      <c r="E198" t="s">
+        <v>18</v>
+      </c>
+      <c r="F198">
+        <v>25</v>
+      </c>
+      <c r="G198">
+        <v>7</v>
+      </c>
+      <c r="H198" t="s">
+        <v>19</v>
+      </c>
+      <c r="I198" t="s">
+        <v>61</v>
+      </c>
+      <c r="J198" t="s">
+        <v>21</v>
+      </c>
+      <c r="K198" t="s">
+        <v>22</v>
+      </c>
+      <c r="L198">
+        <v>33</v>
+      </c>
+      <c r="M198">
+        <v>2.0</v>
+      </c>
+      <c r="N198" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14">
+      <c r="A199" t="s">
+        <v>14</v>
+      </c>
+      <c r="B199" t="s">
+        <v>15</v>
+      </c>
+      <c r="C199" t="s">
+        <v>16</v>
+      </c>
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" t="s">
+        <v>18</v>
+      </c>
+      <c r="F199">
+        <v>25</v>
+      </c>
+      <c r="G199">
+        <v>7</v>
+      </c>
+      <c r="H199" t="s">
+        <v>19</v>
+      </c>
+      <c r="I199" t="s">
+        <v>61</v>
+      </c>
+      <c r="J199" t="s">
+        <v>21</v>
+      </c>
+      <c r="K199" t="s">
+        <v>22</v>
+      </c>
+      <c r="L199">
+        <v>33</v>
+      </c>
+      <c r="M199">
+        <v>12.0</v>
+      </c>
+      <c r="N199" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14">
+      <c r="A200" t="s">
+        <v>14</v>
+      </c>
+      <c r="B200" t="s">
+        <v>15</v>
+      </c>
+      <c r="C200" t="s">
+        <v>16</v>
+      </c>
+      <c r="D200" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" t="s">
+        <v>18</v>
+      </c>
+      <c r="F200">
+        <v>25</v>
+      </c>
+      <c r="G200">
+        <v>7</v>
+      </c>
+      <c r="H200" t="s">
+        <v>19</v>
+      </c>
+      <c r="I200" t="s">
+        <v>62</v>
+      </c>
+      <c r="J200" t="s">
+        <v>21</v>
+      </c>
+      <c r="K200" t="s">
+        <v>22</v>
+      </c>
+      <c r="L200">
+        <v>34</v>
+      </c>
+      <c r="M200">
+        <v>0.0</v>
+      </c>
+      <c r="N200" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14">
+      <c r="A201" t="s">
+        <v>14</v>
+      </c>
+      <c r="B201" t="s">
+        <v>15</v>
+      </c>
+      <c r="C201" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201" t="s">
+        <v>24</v>
+      </c>
+      <c r="E201" t="s">
+        <v>18</v>
+      </c>
+      <c r="F201">
+        <v>10</v>
+      </c>
+      <c r="G201">
+        <v>3</v>
+      </c>
+      <c r="H201" t="s">
+        <v>19</v>
+      </c>
+      <c r="I201" t="s">
+        <v>62</v>
+      </c>
+      <c r="J201" t="s">
+        <v>21</v>
+      </c>
+      <c r="K201" t="s">
+        <v>22</v>
+      </c>
+      <c r="L201">
+        <v>34</v>
+      </c>
+      <c r="M201">
+        <v>0.0</v>
+      </c>
+      <c r="N201" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14">
+      <c r="A202" t="s">
+        <v>14</v>
+      </c>
+      <c r="B202" t="s">
+        <v>15</v>
+      </c>
+      <c r="C202" t="s">
+        <v>16</v>
+      </c>
+      <c r="D202" t="s">
+        <v>25</v>
+      </c>
+      <c r="E202" t="s">
+        <v>18</v>
+      </c>
+      <c r="F202">
+        <v>10</v>
+      </c>
+      <c r="G202">
+        <v>3</v>
+      </c>
+      <c r="H202" t="s">
+        <v>19</v>
+      </c>
+      <c r="I202" t="s">
+        <v>62</v>
+      </c>
+      <c r="J202" t="s">
+        <v>21</v>
+      </c>
+      <c r="K202" t="s">
+        <v>22</v>
+      </c>
+      <c r="L202">
+        <v>34</v>
+      </c>
+      <c r="M202">
+        <v>0.0</v>
+      </c>
+      <c r="N202" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14">
+      <c r="A203" t="s">
+        <v>14</v>
+      </c>
+      <c r="B203" t="s">
+        <v>15</v>
+      </c>
+      <c r="C203" t="s">
+        <v>16</v>
+      </c>
+      <c r="D203" t="s">
+        <v>26</v>
+      </c>
+      <c r="E203" t="s">
+        <v>18</v>
+      </c>
+      <c r="F203">
+        <v>25</v>
+      </c>
+      <c r="G203">
+        <v>7</v>
+      </c>
+      <c r="H203" t="s">
+        <v>19</v>
+      </c>
+      <c r="I203" t="s">
+        <v>62</v>
+      </c>
+      <c r="J203" t="s">
+        <v>21</v>
+      </c>
+      <c r="K203" t="s">
+        <v>22</v>
+      </c>
+      <c r="L203">
+        <v>34</v>
+      </c>
+      <c r="M203">
+        <v>0.0</v>
+      </c>
+      <c r="N203" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14">
+      <c r="A204" t="s">
+        <v>14</v>
+      </c>
+      <c r="B204" t="s">
+        <v>15</v>
+      </c>
+      <c r="C204" t="s">
+        <v>16</v>
+      </c>
+      <c r="D204" t="s">
+        <v>27</v>
+      </c>
+      <c r="E204" t="s">
+        <v>18</v>
+      </c>
+      <c r="F204">
+        <v>25</v>
+      </c>
+      <c r="G204">
+        <v>7</v>
+      </c>
+      <c r="H204" t="s">
+        <v>19</v>
+      </c>
+      <c r="I204" t="s">
+        <v>62</v>
+      </c>
+      <c r="J204" t="s">
+        <v>21</v>
+      </c>
+      <c r="K204" t="s">
+        <v>22</v>
+      </c>
+      <c r="L204">
+        <v>34</v>
+      </c>
+      <c r="M204">
+        <v>0.0</v>
+      </c>
+      <c r="N204" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14">
+      <c r="A205" t="s">
+        <v>14</v>
+      </c>
+      <c r="B205" t="s">
+        <v>15</v>
+      </c>
+      <c r="C205" t="s">
+        <v>16</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" t="s">
+        <v>18</v>
+      </c>
+      <c r="F205">
+        <v>25</v>
+      </c>
+      <c r="G205">
+        <v>7</v>
+      </c>
+      <c r="H205" t="s">
+        <v>19</v>
+      </c>
+      <c r="I205" t="s">
+        <v>62</v>
+      </c>
+      <c r="J205" t="s">
+        <v>21</v>
+      </c>
+      <c r="K205" t="s">
+        <v>22</v>
+      </c>
+      <c r="L205">
+        <v>34</v>
+      </c>
+      <c r="M205">
+        <v>0.0</v>
+      </c>
+      <c r="N205" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14">
+      <c r="A206" t="s">
+        <v>14</v>
+      </c>
+      <c r="B206" t="s">
+        <v>15</v>
+      </c>
+      <c r="C206" t="s">
+        <v>16</v>
+      </c>
+      <c r="D206" t="s">
+        <v>17</v>
+      </c>
+      <c r="E206" t="s">
+        <v>18</v>
+      </c>
+      <c r="F206">
+        <v>25</v>
+      </c>
+      <c r="G206">
+        <v>7</v>
+      </c>
+      <c r="H206" t="s">
+        <v>19</v>
+      </c>
+      <c r="I206" t="s">
+        <v>63</v>
+      </c>
+      <c r="J206" t="s">
+        <v>21</v>
+      </c>
+      <c r="K206" t="s">
+        <v>22</v>
+      </c>
+      <c r="L206">
+        <v>35</v>
+      </c>
+      <c r="M206">
+        <v>24.0</v>
+      </c>
+      <c r="N206" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14">
+      <c r="A207" t="s">
+        <v>14</v>
+      </c>
+      <c r="B207" t="s">
+        <v>15</v>
+      </c>
+      <c r="C207" t="s">
+        <v>16</v>
+      </c>
+      <c r="D207" t="s">
+        <v>24</v>
+      </c>
+      <c r="E207" t="s">
+        <v>18</v>
+      </c>
+      <c r="F207">
+        <v>10</v>
+      </c>
+      <c r="G207">
+        <v>3</v>
+      </c>
+      <c r="H207" t="s">
+        <v>19</v>
+      </c>
+      <c r="I207" t="s">
+        <v>63</v>
+      </c>
+      <c r="J207" t="s">
+        <v>21</v>
+      </c>
+      <c r="K207" t="s">
+        <v>22</v>
+      </c>
+      <c r="L207">
+        <v>35</v>
+      </c>
+      <c r="M207">
+        <v>10.0</v>
+      </c>
+      <c r="N207" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14">
+      <c r="A208" t="s">
+        <v>14</v>
+      </c>
+      <c r="B208" t="s">
+        <v>15</v>
+      </c>
+      <c r="C208" t="s">
+        <v>16</v>
+      </c>
+      <c r="D208" t="s">
+        <v>25</v>
+      </c>
+      <c r="E208" t="s">
+        <v>18</v>
+      </c>
+      <c r="F208">
+        <v>10</v>
+      </c>
+      <c r="G208">
+        <v>3</v>
+      </c>
+      <c r="H208" t="s">
+        <v>19</v>
+      </c>
+      <c r="I208" t="s">
+        <v>63</v>
+      </c>
+      <c r="J208" t="s">
+        <v>21</v>
+      </c>
+      <c r="K208" t="s">
+        <v>22</v>
+      </c>
+      <c r="L208">
+        <v>35</v>
+      </c>
+      <c r="M208">
+        <v>10.0</v>
+      </c>
+      <c r="N208" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14">
+      <c r="A209" t="s">
+        <v>14</v>
+      </c>
+      <c r="B209" t="s">
+        <v>15</v>
+      </c>
+      <c r="C209" t="s">
+        <v>16</v>
+      </c>
+      <c r="D209" t="s">
+        <v>26</v>
+      </c>
+      <c r="E209" t="s">
+        <v>18</v>
+      </c>
+      <c r="F209">
+        <v>25</v>
+      </c>
+      <c r="G209">
+        <v>7</v>
+      </c>
+      <c r="H209" t="s">
+        <v>19</v>
+      </c>
+      <c r="I209" t="s">
+        <v>63</v>
+      </c>
+      <c r="J209" t="s">
+        <v>21</v>
+      </c>
+      <c r="K209" t="s">
+        <v>22</v>
+      </c>
+      <c r="L209">
+        <v>35</v>
+      </c>
+      <c r="M209">
+        <v>25.0</v>
+      </c>
+      <c r="N209" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14">
+      <c r="A210" t="s">
+        <v>14</v>
+      </c>
+      <c r="B210" t="s">
+        <v>15</v>
+      </c>
+      <c r="C210" t="s">
+        <v>16</v>
+      </c>
+      <c r="D210" t="s">
+        <v>27</v>
+      </c>
+      <c r="E210" t="s">
+        <v>18</v>
+      </c>
+      <c r="F210">
+        <v>25</v>
+      </c>
+      <c r="G210">
+        <v>7</v>
+      </c>
+      <c r="H210" t="s">
+        <v>19</v>
+      </c>
+      <c r="I210" t="s">
+        <v>63</v>
+      </c>
+      <c r="J210" t="s">
+        <v>21</v>
+      </c>
+      <c r="K210" t="s">
+        <v>22</v>
+      </c>
+      <c r="L210">
+        <v>35</v>
+      </c>
+      <c r="M210">
+        <v>18.0</v>
+      </c>
+      <c r="N210" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14">
+      <c r="A211" t="s">
+        <v>14</v>
+      </c>
+      <c r="B211" t="s">
+        <v>15</v>
+      </c>
+      <c r="C211" t="s">
+        <v>16</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" t="s">
+        <v>18</v>
+      </c>
+      <c r="F211">
+        <v>25</v>
+      </c>
+      <c r="G211">
+        <v>7</v>
+      </c>
+      <c r="H211" t="s">
+        <v>19</v>
+      </c>
+      <c r="I211" t="s">
+        <v>63</v>
+      </c>
+      <c r="J211" t="s">
+        <v>21</v>
+      </c>
+      <c r="K211" t="s">
+        <v>22</v>
+      </c>
+      <c r="L211">
+        <v>35</v>
+      </c>
+      <c r="M211">
+        <v>10.0</v>
+      </c>
+      <c r="N211" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14">
+      <c r="A212" t="s">
+        <v>14</v>
+      </c>
+      <c r="B212" t="s">
+        <v>15</v>
+      </c>
+      <c r="C212" t="s">
+        <v>16</v>
+      </c>
+      <c r="D212" t="s">
+        <v>17</v>
+      </c>
+      <c r="E212" t="s">
+        <v>18</v>
+      </c>
+      <c r="F212">
+        <v>25</v>
+      </c>
+      <c r="G212">
+        <v>7</v>
+      </c>
+      <c r="H212" t="s">
+        <v>19</v>
+      </c>
+      <c r="I212" t="s">
+        <v>64</v>
+      </c>
+      <c r="J212" t="s">
+        <v>21</v>
+      </c>
+      <c r="K212" t="s">
+        <v>22</v>
+      </c>
+      <c r="L212">
+        <v>36</v>
+      </c>
+      <c r="M212">
+        <v>4.0</v>
+      </c>
+      <c r="N212" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14">
+      <c r="A213" t="s">
+        <v>14</v>
+      </c>
+      <c r="B213" t="s">
+        <v>15</v>
+      </c>
+      <c r="C213" t="s">
+        <v>16</v>
+      </c>
+      <c r="D213" t="s">
+        <v>24</v>
+      </c>
+      <c r="E213" t="s">
+        <v>18</v>
+      </c>
+      <c r="F213">
+        <v>10</v>
+      </c>
+      <c r="G213">
+        <v>3</v>
+      </c>
+      <c r="H213" t="s">
+        <v>19</v>
+      </c>
+      <c r="I213" t="s">
+        <v>64</v>
+      </c>
+      <c r="J213" t="s">
+        <v>21</v>
+      </c>
+      <c r="K213" t="s">
+        <v>22</v>
+      </c>
+      <c r="L213">
+        <v>36</v>
+      </c>
+      <c r="M213">
+        <v>0.0</v>
+      </c>
+      <c r="N213" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14">
+      <c r="A214" t="s">
+        <v>14</v>
+      </c>
+      <c r="B214" t="s">
+        <v>15</v>
+      </c>
+      <c r="C214" t="s">
+        <v>16</v>
+      </c>
+      <c r="D214" t="s">
+        <v>25</v>
+      </c>
+      <c r="E214" t="s">
+        <v>18</v>
+      </c>
+      <c r="F214">
+        <v>10</v>
+      </c>
+      <c r="G214">
+        <v>3</v>
+      </c>
+      <c r="H214" t="s">
+        <v>19</v>
+      </c>
+      <c r="I214" t="s">
+        <v>64</v>
+      </c>
+      <c r="J214" t="s">
+        <v>21</v>
+      </c>
+      <c r="K214" t="s">
+        <v>22</v>
+      </c>
+      <c r="L214">
+        <v>36</v>
+      </c>
+      <c r="M214">
+        <v>0.0</v>
+      </c>
+      <c r="N214" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14">
+      <c r="A215" t="s">
+        <v>14</v>
+      </c>
+      <c r="B215" t="s">
+        <v>15</v>
+      </c>
+      <c r="C215" t="s">
+        <v>16</v>
+      </c>
+      <c r="D215" t="s">
+        <v>26</v>
+      </c>
+      <c r="E215" t="s">
+        <v>18</v>
+      </c>
+      <c r="F215">
+        <v>25</v>
+      </c>
+      <c r="G215">
+        <v>7</v>
+      </c>
+      <c r="H215" t="s">
+        <v>19</v>
+      </c>
+      <c r="I215" t="s">
+        <v>64</v>
+      </c>
+      <c r="J215" t="s">
+        <v>21</v>
+      </c>
+      <c r="K215" t="s">
+        <v>22</v>
+      </c>
+      <c r="L215">
+        <v>36</v>
+      </c>
+      <c r="M215">
+        <v>14.0</v>
+      </c>
+      <c r="N215" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14">
+      <c r="A216" t="s">
+        <v>14</v>
+      </c>
+      <c r="B216" t="s">
+        <v>15</v>
+      </c>
+      <c r="C216" t="s">
+        <v>16</v>
+      </c>
+      <c r="D216" t="s">
+        <v>27</v>
+      </c>
+      <c r="E216" t="s">
+        <v>18</v>
+      </c>
+      <c r="F216">
+        <v>25</v>
+      </c>
+      <c r="G216">
+        <v>7</v>
+      </c>
+      <c r="H216" t="s">
+        <v>19</v>
+      </c>
+      <c r="I216" t="s">
+        <v>64</v>
+      </c>
+      <c r="J216" t="s">
+        <v>21</v>
+      </c>
+      <c r="K216" t="s">
+        <v>22</v>
+      </c>
+      <c r="L216">
+        <v>36</v>
+      </c>
+      <c r="M216">
+        <v>16.5</v>
+      </c>
+      <c r="N216" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14">
+      <c r="A217" t="s">
+        <v>14</v>
+      </c>
+      <c r="B217" t="s">
+        <v>15</v>
+      </c>
+      <c r="C217" t="s">
+        <v>16</v>
+      </c>
+      <c r="D217" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217" t="s">
+        <v>18</v>
+      </c>
+      <c r="F217">
+        <v>25</v>
+      </c>
+      <c r="G217">
+        <v>7</v>
+      </c>
+      <c r="H217" t="s">
+        <v>19</v>
+      </c>
+      <c r="I217" t="s">
+        <v>64</v>
+      </c>
+      <c r="J217" t="s">
+        <v>21</v>
+      </c>
+      <c r="K217" t="s">
+        <v>22</v>
+      </c>
+      <c r="L217">
+        <v>36</v>
+      </c>
+      <c r="M217">
+        <v>19.0</v>
+      </c>
+      <c r="N217" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14">
+      <c r="A218" t="s">
+        <v>14</v>
+      </c>
+      <c r="B218" t="s">
+        <v>15</v>
+      </c>
+      <c r="C218" t="s">
+        <v>16</v>
+      </c>
+      <c r="D218" t="s">
+        <v>17</v>
+      </c>
+      <c r="E218" t="s">
+        <v>18</v>
+      </c>
+      <c r="F218">
+        <v>25</v>
+      </c>
+      <c r="G218">
+        <v>7</v>
+      </c>
+      <c r="H218" t="s">
+        <v>19</v>
+      </c>
+      <c r="I218" t="s">
+        <v>65</v>
+      </c>
+      <c r="J218" t="s">
+        <v>21</v>
+      </c>
+      <c r="K218" t="s">
+        <v>22</v>
+      </c>
+      <c r="L218">
+        <v>37</v>
+      </c>
+      <c r="M218">
+        <v>0.0</v>
+      </c>
+      <c r="N218" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14">
+      <c r="A219" t="s">
+        <v>14</v>
+      </c>
+      <c r="B219" t="s">
+        <v>15</v>
+      </c>
+      <c r="C219" t="s">
+        <v>16</v>
+      </c>
+      <c r="D219" t="s">
+        <v>24</v>
+      </c>
+      <c r="E219" t="s">
+        <v>18</v>
+      </c>
+      <c r="F219">
+        <v>10</v>
+      </c>
+      <c r="G219">
+        <v>3</v>
+      </c>
+      <c r="H219" t="s">
+        <v>19</v>
+      </c>
+      <c r="I219" t="s">
+        <v>65</v>
+      </c>
+      <c r="J219" t="s">
+        <v>21</v>
+      </c>
+      <c r="K219" t="s">
+        <v>22</v>
+      </c>
+      <c r="L219">
+        <v>37</v>
+      </c>
+      <c r="M219">
+        <v>10.0</v>
+      </c>
+      <c r="N219" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14">
+      <c r="A220" t="s">
+        <v>14</v>
+      </c>
+      <c r="B220" t="s">
+        <v>15</v>
+      </c>
+      <c r="C220" t="s">
+        <v>16</v>
+      </c>
+      <c r="D220" t="s">
+        <v>25</v>
+      </c>
+      <c r="E220" t="s">
+        <v>18</v>
+      </c>
+      <c r="F220">
+        <v>10</v>
+      </c>
+      <c r="G220">
+        <v>3</v>
+      </c>
+      <c r="H220" t="s">
+        <v>19</v>
+      </c>
+      <c r="I220" t="s">
+        <v>65</v>
+      </c>
+      <c r="J220" t="s">
+        <v>21</v>
+      </c>
+      <c r="K220" t="s">
+        <v>22</v>
+      </c>
+      <c r="L220">
+        <v>37</v>
+      </c>
+      <c r="M220">
+        <v>0.0</v>
+      </c>
+      <c r="N220" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14">
+      <c r="A221" t="s">
+        <v>14</v>
+      </c>
+      <c r="B221" t="s">
+        <v>15</v>
+      </c>
+      <c r="C221" t="s">
+        <v>16</v>
+      </c>
+      <c r="D221" t="s">
+        <v>26</v>
+      </c>
+      <c r="E221" t="s">
+        <v>18</v>
+      </c>
+      <c r="F221">
+        <v>25</v>
+      </c>
+      <c r="G221">
+        <v>7</v>
+      </c>
+      <c r="H221" t="s">
+        <v>19</v>
+      </c>
+      <c r="I221" t="s">
+        <v>65</v>
+      </c>
+      <c r="J221" t="s">
+        <v>21</v>
+      </c>
+      <c r="K221" t="s">
+        <v>22</v>
+      </c>
+      <c r="L221">
+        <v>37</v>
+      </c>
+      <c r="M221">
+        <v>0.0</v>
+      </c>
+      <c r="N221" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14">
+      <c r="A222" t="s">
+        <v>14</v>
+      </c>
+      <c r="B222" t="s">
+        <v>15</v>
+      </c>
+      <c r="C222" t="s">
+        <v>16</v>
+      </c>
+      <c r="D222" t="s">
+        <v>27</v>
+      </c>
+      <c r="E222" t="s">
+        <v>18</v>
+      </c>
+      <c r="F222">
+        <v>25</v>
+      </c>
+      <c r="G222">
+        <v>7</v>
+      </c>
+      <c r="H222" t="s">
+        <v>19</v>
+      </c>
+      <c r="I222" t="s">
+        <v>65</v>
+      </c>
+      <c r="J222" t="s">
+        <v>21</v>
+      </c>
+      <c r="K222" t="s">
+        <v>22</v>
+      </c>
+      <c r="L222">
+        <v>37</v>
+      </c>
+      <c r="M222">
+        <v>0.0</v>
+      </c>
+      <c r="N222" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14">
+      <c r="A223" t="s">
+        <v>14</v>
+      </c>
+      <c r="B223" t="s">
+        <v>15</v>
+      </c>
+      <c r="C223" t="s">
+        <v>16</v>
+      </c>
+      <c r="D223" t="s">
+        <v>28</v>
+      </c>
+      <c r="E223" t="s">
+        <v>18</v>
+      </c>
+      <c r="F223">
+        <v>25</v>
+      </c>
+      <c r="G223">
+        <v>7</v>
+      </c>
+      <c r="H223" t="s">
+        <v>19</v>
+      </c>
+      <c r="I223" t="s">
+        <v>65</v>
+      </c>
+      <c r="J223" t="s">
+        <v>21</v>
+      </c>
+      <c r="K223" t="s">
+        <v>22</v>
+      </c>
+      <c r="L223">
+        <v>37</v>
+      </c>
+      <c r="M223">
+        <v>0.0</v>
+      </c>
+      <c r="N223" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14">
+      <c r="A224" t="s">
+        <v>14</v>
+      </c>
+      <c r="B224" t="s">
+        <v>15</v>
+      </c>
+      <c r="C224" t="s">
+        <v>16</v>
+      </c>
+      <c r="D224" t="s">
+        <v>17</v>
+      </c>
+      <c r="E224" t="s">
+        <v>18</v>
+      </c>
+      <c r="F224">
+        <v>25</v>
+      </c>
+      <c r="G224">
+        <v>7</v>
+      </c>
+      <c r="H224" t="s">
+        <v>19</v>
+      </c>
+      <c r="I224" t="s">
+        <v>66</v>
+      </c>
+      <c r="J224" t="s">
+        <v>21</v>
+      </c>
+      <c r="K224" t="s">
+        <v>22</v>
+      </c>
+      <c r="L224">
+        <v>38</v>
+      </c>
+      <c r="M224">
+        <v>18.0</v>
+      </c>
+      <c r="N224" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14">
+      <c r="A225" t="s">
+        <v>14</v>
+      </c>
+      <c r="B225" t="s">
+        <v>15</v>
+      </c>
+      <c r="C225" t="s">
+        <v>16</v>
+      </c>
+      <c r="D225" t="s">
+        <v>24</v>
+      </c>
+      <c r="E225" t="s">
+        <v>18</v>
+      </c>
+      <c r="F225">
+        <v>10</v>
+      </c>
+      <c r="G225">
+        <v>3</v>
+      </c>
+      <c r="H225" t="s">
+        <v>19</v>
+      </c>
+      <c r="I225" t="s">
+        <v>66</v>
+      </c>
+      <c r="J225" t="s">
+        <v>21</v>
+      </c>
+      <c r="K225" t="s">
+        <v>22</v>
+      </c>
+      <c r="L225">
+        <v>38</v>
+      </c>
+      <c r="M225">
+        <v>5.0</v>
+      </c>
+      <c r="N225" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14">
+      <c r="A226" t="s">
+        <v>14</v>
+      </c>
+      <c r="B226" t="s">
+        <v>15</v>
+      </c>
+      <c r="C226" t="s">
+        <v>16</v>
+      </c>
+      <c r="D226" t="s">
+        <v>25</v>
+      </c>
+      <c r="E226" t="s">
+        <v>18</v>
+      </c>
+      <c r="F226">
+        <v>10</v>
+      </c>
+      <c r="G226">
+        <v>3</v>
+      </c>
+      <c r="H226" t="s">
+        <v>19</v>
+      </c>
+      <c r="I226" t="s">
+        <v>66</v>
+      </c>
+      <c r="J226" t="s">
+        <v>21</v>
+      </c>
+      <c r="K226" t="s">
+        <v>22</v>
+      </c>
+      <c r="L226">
+        <v>38</v>
+      </c>
+      <c r="M226">
+        <v>10.0</v>
+      </c>
+      <c r="N226" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14">
+      <c r="A227" t="s">
+        <v>14</v>
+      </c>
+      <c r="B227" t="s">
+        <v>15</v>
+      </c>
+      <c r="C227" t="s">
+        <v>16</v>
+      </c>
+      <c r="D227" t="s">
+        <v>26</v>
+      </c>
+      <c r="E227" t="s">
+        <v>18</v>
+      </c>
+      <c r="F227">
+        <v>25</v>
+      </c>
+      <c r="G227">
+        <v>7</v>
+      </c>
+      <c r="H227" t="s">
+        <v>19</v>
+      </c>
+      <c r="I227" t="s">
+        <v>66</v>
+      </c>
+      <c r="J227" t="s">
+        <v>21</v>
+      </c>
+      <c r="K227" t="s">
+        <v>22</v>
+      </c>
+      <c r="L227">
+        <v>38</v>
+      </c>
+      <c r="M227">
+        <v>25.0</v>
+      </c>
+      <c r="N227" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14">
+      <c r="A228" t="s">
+        <v>14</v>
+      </c>
+      <c r="B228" t="s">
+        <v>15</v>
+      </c>
+      <c r="C228" t="s">
+        <v>16</v>
+      </c>
+      <c r="D228" t="s">
+        <v>27</v>
+      </c>
+      <c r="E228" t="s">
+        <v>18</v>
+      </c>
+      <c r="F228">
+        <v>25</v>
+      </c>
+      <c r="G228">
+        <v>7</v>
+      </c>
+      <c r="H228" t="s">
+        <v>19</v>
+      </c>
+      <c r="I228" t="s">
+        <v>66</v>
+      </c>
+      <c r="J228" t="s">
+        <v>21</v>
+      </c>
+      <c r="K228" t="s">
+        <v>22</v>
+      </c>
+      <c r="L228">
+        <v>38</v>
+      </c>
+      <c r="M228">
+        <v>21.0</v>
+      </c>
+      <c r="N228" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14">
+      <c r="A229" t="s">
+        <v>14</v>
+      </c>
+      <c r="B229" t="s">
+        <v>15</v>
+      </c>
+      <c r="C229" t="s">
+        <v>16</v>
+      </c>
+      <c r="D229" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" t="s">
+        <v>18</v>
+      </c>
+      <c r="F229">
+        <v>25</v>
+      </c>
+      <c r="G229">
+        <v>7</v>
+      </c>
+      <c r="H229" t="s">
+        <v>19</v>
+      </c>
+      <c r="I229" t="s">
+        <v>66</v>
+      </c>
+      <c r="J229" t="s">
+        <v>21</v>
+      </c>
+      <c r="K229" t="s">
+        <v>22</v>
+      </c>
+      <c r="L229">
+        <v>38</v>
+      </c>
+      <c r="M229">
+        <v>15.0</v>
+      </c>
+      <c r="N229" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14">
+      <c r="A230" t="s">
+        <v>14</v>
+      </c>
+      <c r="B230" t="s">
+        <v>15</v>
+      </c>
+      <c r="C230" t="s">
+        <v>16</v>
+      </c>
+      <c r="D230" t="s">
+        <v>17</v>
+      </c>
+      <c r="E230" t="s">
+        <v>18</v>
+      </c>
+      <c r="F230">
+        <v>25</v>
+      </c>
+      <c r="G230">
+        <v>7</v>
+      </c>
+      <c r="H230" t="s">
+        <v>19</v>
+      </c>
+      <c r="I230" t="s">
+        <v>67</v>
+      </c>
+      <c r="J230" t="s">
+        <v>21</v>
+      </c>
+      <c r="K230" t="s">
+        <v>22</v>
+      </c>
+      <c r="L230">
+        <v>39</v>
+      </c>
+      <c r="M230">
+        <v>5.0</v>
+      </c>
+      <c r="N230" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14">
+      <c r="A231" t="s">
+        <v>14</v>
+      </c>
+      <c r="B231" t="s">
+        <v>15</v>
+      </c>
+      <c r="C231" t="s">
+        <v>16</v>
+      </c>
+      <c r="D231" t="s">
+        <v>24</v>
+      </c>
+      <c r="E231" t="s">
+        <v>18</v>
+      </c>
+      <c r="F231">
+        <v>10</v>
+      </c>
+      <c r="G231">
+        <v>3</v>
+      </c>
+      <c r="H231" t="s">
+        <v>19</v>
+      </c>
+      <c r="I231" t="s">
+        <v>67</v>
+      </c>
+      <c r="J231" t="s">
+        <v>21</v>
+      </c>
+      <c r="K231" t="s">
+        <v>22</v>
+      </c>
+      <c r="L231">
+        <v>39</v>
+      </c>
+      <c r="M231">
+        <v>4.0</v>
+      </c>
+      <c r="N231" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14">
+      <c r="A232" t="s">
+        <v>14</v>
+      </c>
+      <c r="B232" t="s">
+        <v>15</v>
+      </c>
+      <c r="C232" t="s">
+        <v>16</v>
+      </c>
+      <c r="D232" t="s">
+        <v>25</v>
+      </c>
+      <c r="E232" t="s">
+        <v>18</v>
+      </c>
+      <c r="F232">
+        <v>10</v>
+      </c>
+      <c r="G232">
+        <v>3</v>
+      </c>
+      <c r="H232" t="s">
+        <v>19</v>
+      </c>
+      <c r="I232" t="s">
+        <v>67</v>
+      </c>
+      <c r="J232" t="s">
+        <v>21</v>
+      </c>
+      <c r="K232" t="s">
+        <v>22</v>
+      </c>
+      <c r="L232">
+        <v>39</v>
+      </c>
+      <c r="M232">
+        <v>4.0</v>
+      </c>
+      <c r="N232" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14">
+      <c r="A233" t="s">
+        <v>14</v>
+      </c>
+      <c r="B233" t="s">
+        <v>15</v>
+      </c>
+      <c r="C233" t="s">
+        <v>16</v>
+      </c>
+      <c r="D233" t="s">
+        <v>26</v>
+      </c>
+      <c r="E233" t="s">
+        <v>18</v>
+      </c>
+      <c r="F233">
+        <v>25</v>
+      </c>
+      <c r="G233">
+        <v>7</v>
+      </c>
+      <c r="H233" t="s">
+        <v>19</v>
+      </c>
+      <c r="I233" t="s">
+        <v>67</v>
+      </c>
+      <c r="J233" t="s">
+        <v>21</v>
+      </c>
+      <c r="K233" t="s">
+        <v>22</v>
+      </c>
+      <c r="L233">
+        <v>39</v>
+      </c>
+      <c r="M233">
+        <v>14.0</v>
+      </c>
+      <c r="N233" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14">
+      <c r="A234" t="s">
+        <v>14</v>
+      </c>
+      <c r="B234" t="s">
+        <v>15</v>
+      </c>
+      <c r="C234" t="s">
+        <v>16</v>
+      </c>
+      <c r="D234" t="s">
+        <v>27</v>
+      </c>
+      <c r="E234" t="s">
+        <v>18</v>
+      </c>
+      <c r="F234">
+        <v>25</v>
+      </c>
+      <c r="G234">
+        <v>7</v>
+      </c>
+      <c r="H234" t="s">
+        <v>19</v>
+      </c>
+      <c r="I234" t="s">
+        <v>67</v>
+      </c>
+      <c r="J234" t="s">
+        <v>21</v>
+      </c>
+      <c r="K234" t="s">
+        <v>22</v>
+      </c>
+      <c r="L234">
+        <v>39</v>
+      </c>
+      <c r="M234">
+        <v>14.0</v>
+      </c>
+      <c r="N234" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14">
+      <c r="A235" t="s">
+        <v>14</v>
+      </c>
+      <c r="B235" t="s">
+        <v>15</v>
+      </c>
+      <c r="C235" t="s">
+        <v>16</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" t="s">
+        <v>18</v>
+      </c>
+      <c r="F235">
+        <v>25</v>
+      </c>
+      <c r="G235">
+        <v>7</v>
+      </c>
+      <c r="H235" t="s">
+        <v>19</v>
+      </c>
+      <c r="I235" t="s">
+        <v>67</v>
+      </c>
+      <c r="J235" t="s">
+        <v>21</v>
+      </c>
+      <c r="K235" t="s">
+        <v>22</v>
+      </c>
+      <c r="L235">
+        <v>39</v>
+      </c>
+      <c r="M235">
+        <v>12.0</v>
+      </c>
+      <c r="N235" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14">
+      <c r="A236" t="s">
+        <v>14</v>
+      </c>
+      <c r="B236" t="s">
+        <v>15</v>
+      </c>
+      <c r="C236" t="s">
+        <v>16</v>
+      </c>
+      <c r="D236" t="s">
+        <v>17</v>
+      </c>
+      <c r="E236" t="s">
+        <v>18</v>
+      </c>
+      <c r="F236">
+        <v>25</v>
+      </c>
+      <c r="G236">
+        <v>7</v>
+      </c>
+      <c r="H236" t="s">
+        <v>19</v>
+      </c>
+      <c r="I236" t="s">
+        <v>68</v>
+      </c>
+      <c r="J236" t="s">
+        <v>21</v>
+      </c>
+      <c r="K236" t="s">
+        <v>22</v>
+      </c>
+      <c r="L236">
+        <v>40</v>
+      </c>
+      <c r="M236">
+        <v>15.0</v>
+      </c>
+      <c r="N236" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14">
+      <c r="A237" t="s">
+        <v>14</v>
+      </c>
+      <c r="B237" t="s">
+        <v>15</v>
+      </c>
+      <c r="C237" t="s">
+        <v>16</v>
+      </c>
+      <c r="D237" t="s">
+        <v>24</v>
+      </c>
+      <c r="E237" t="s">
+        <v>18</v>
+      </c>
+      <c r="F237">
+        <v>10</v>
+      </c>
+      <c r="G237">
+        <v>3</v>
+      </c>
+      <c r="H237" t="s">
+        <v>19</v>
+      </c>
+      <c r="I237" t="s">
+        <v>68</v>
+      </c>
+      <c r="J237" t="s">
+        <v>21</v>
+      </c>
+      <c r="K237" t="s">
+        <v>22</v>
+      </c>
+      <c r="L237">
+        <v>40</v>
+      </c>
+      <c r="M237">
+        <v>10.0</v>
+      </c>
+      <c r="N237" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14">
+      <c r="A238" t="s">
+        <v>14</v>
+      </c>
+      <c r="B238" t="s">
+        <v>15</v>
+      </c>
+      <c r="C238" t="s">
+        <v>16</v>
+      </c>
+      <c r="D238" t="s">
+        <v>25</v>
+      </c>
+      <c r="E238" t="s">
+        <v>18</v>
+      </c>
+      <c r="F238">
+        <v>10</v>
+      </c>
+      <c r="G238">
+        <v>3</v>
+      </c>
+      <c r="H238" t="s">
+        <v>19</v>
+      </c>
+      <c r="I238" t="s">
+        <v>68</v>
+      </c>
+      <c r="J238" t="s">
+        <v>21</v>
+      </c>
+      <c r="K238" t="s">
+        <v>22</v>
+      </c>
+      <c r="L238">
+        <v>40</v>
+      </c>
+      <c r="M238">
+        <v>10.0</v>
+      </c>
+      <c r="N238" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14">
+      <c r="A239" t="s">
+        <v>14</v>
+      </c>
+      <c r="B239" t="s">
+        <v>15</v>
+      </c>
+      <c r="C239" t="s">
+        <v>16</v>
+      </c>
+      <c r="D239" t="s">
+        <v>26</v>
+      </c>
+      <c r="E239" t="s">
+        <v>18</v>
+      </c>
+      <c r="F239">
+        <v>25</v>
+      </c>
+      <c r="G239">
+        <v>7</v>
+      </c>
+      <c r="H239" t="s">
+        <v>19</v>
+      </c>
+      <c r="I239" t="s">
+        <v>68</v>
+      </c>
+      <c r="J239" t="s">
+        <v>21</v>
+      </c>
+      <c r="K239" t="s">
+        <v>22</v>
+      </c>
+      <c r="L239">
+        <v>40</v>
+      </c>
+      <c r="M239">
+        <v>23.0</v>
+      </c>
+      <c r="N239" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14">
+      <c r="A240" t="s">
+        <v>14</v>
+      </c>
+      <c r="B240" t="s">
+        <v>15</v>
+      </c>
+      <c r="C240" t="s">
+        <v>16</v>
+      </c>
+      <c r="D240" t="s">
+        <v>27</v>
+      </c>
+      <c r="E240" t="s">
+        <v>18</v>
+      </c>
+      <c r="F240">
+        <v>25</v>
+      </c>
+      <c r="G240">
+        <v>7</v>
+      </c>
+      <c r="H240" t="s">
+        <v>19</v>
+      </c>
+      <c r="I240" t="s">
+        <v>68</v>
+      </c>
+      <c r="J240" t="s">
+        <v>21</v>
+      </c>
+      <c r="K240" t="s">
+        <v>22</v>
+      </c>
+      <c r="L240">
+        <v>40</v>
+      </c>
+      <c r="M240">
+        <v>25.0</v>
+      </c>
+      <c r="N240" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14">
+      <c r="A241" t="s">
+        <v>14</v>
+      </c>
+      <c r="B241" t="s">
+        <v>15</v>
+      </c>
+      <c r="C241" t="s">
+        <v>16</v>
+      </c>
+      <c r="D241" t="s">
+        <v>28</v>
+      </c>
+      <c r="E241" t="s">
+        <v>18</v>
+      </c>
+      <c r="F241">
+        <v>25</v>
+      </c>
+      <c r="G241">
+        <v>7</v>
+      </c>
+      <c r="H241" t="s">
+        <v>19</v>
+      </c>
+      <c r="I241" t="s">
+        <v>68</v>
+      </c>
+      <c r="J241" t="s">
+        <v>21</v>
+      </c>
+      <c r="K241" t="s">
+        <v>22</v>
+      </c>
+      <c r="L241">
+        <v>40</v>
+      </c>
+      <c r="M241">
+        <v>12.0</v>
+      </c>
+      <c r="N241" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14">
+      <c r="A242" t="s">
+        <v>14</v>
+      </c>
+      <c r="B242" t="s">
+        <v>15</v>
+      </c>
+      <c r="C242" t="s">
+        <v>16</v>
+      </c>
+      <c r="D242" t="s">
+        <v>17</v>
+      </c>
+      <c r="E242" t="s">
+        <v>18</v>
+      </c>
+      <c r="F242">
+        <v>25</v>
+      </c>
+      <c r="G242">
+        <v>7</v>
+      </c>
+      <c r="H242" t="s">
+        <v>19</v>
+      </c>
+      <c r="I242" t="s">
+        <v>69</v>
+      </c>
+      <c r="J242" t="s">
+        <v>21</v>
+      </c>
+      <c r="K242" t="s">
+        <v>22</v>
+      </c>
+      <c r="L242">
+        <v>41</v>
+      </c>
+      <c r="M242">
+        <v>0.0</v>
+      </c>
+      <c r="N242" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14">
+      <c r="A243" t="s">
+        <v>14</v>
+      </c>
+      <c r="B243" t="s">
+        <v>15</v>
+      </c>
+      <c r="C243" t="s">
+        <v>16</v>
+      </c>
+      <c r="D243" t="s">
+        <v>24</v>
+      </c>
+      <c r="E243" t="s">
+        <v>18</v>
+      </c>
+      <c r="F243">
+        <v>10</v>
+      </c>
+      <c r="G243">
+        <v>3</v>
+      </c>
+      <c r="H243" t="s">
+        <v>19</v>
+      </c>
+      <c r="I243" t="s">
+        <v>69</v>
+      </c>
+      <c r="J243" t="s">
+        <v>21</v>
+      </c>
+      <c r="K243" t="s">
+        <v>22</v>
+      </c>
+      <c r="L243">
+        <v>41</v>
+      </c>
+      <c r="M243">
+        <v>0.0</v>
+      </c>
+      <c r="N243" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14">
+      <c r="A244" t="s">
+        <v>14</v>
+      </c>
+      <c r="B244" t="s">
+        <v>15</v>
+      </c>
+      <c r="C244" t="s">
+        <v>16</v>
+      </c>
+      <c r="D244" t="s">
+        <v>25</v>
+      </c>
+      <c r="E244" t="s">
+        <v>18</v>
+      </c>
+      <c r="F244">
+        <v>10</v>
+      </c>
+      <c r="G244">
+        <v>3</v>
+      </c>
+      <c r="H244" t="s">
+        <v>19</v>
+      </c>
+      <c r="I244" t="s">
+        <v>69</v>
+      </c>
+      <c r="J244" t="s">
+        <v>21</v>
+      </c>
+      <c r="K244" t="s">
+        <v>22</v>
+      </c>
+      <c r="L244">
+        <v>41</v>
+      </c>
+      <c r="M244">
+        <v>0.0</v>
+      </c>
+      <c r="N244" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14">
+      <c r="A245" t="s">
+        <v>14</v>
+      </c>
+      <c r="B245" t="s">
+        <v>15</v>
+      </c>
+      <c r="C245" t="s">
+        <v>16</v>
+      </c>
+      <c r="D245" t="s">
+        <v>26</v>
+      </c>
+      <c r="E245" t="s">
+        <v>18</v>
+      </c>
+      <c r="F245">
+        <v>25</v>
+      </c>
+      <c r="G245">
+        <v>7</v>
+      </c>
+      <c r="H245" t="s">
+        <v>19</v>
+      </c>
+      <c r="I245" t="s">
+        <v>69</v>
+      </c>
+      <c r="J245" t="s">
+        <v>21</v>
+      </c>
+      <c r="K245" t="s">
+        <v>22</v>
+      </c>
+      <c r="L245">
+        <v>41</v>
+      </c>
+      <c r="M245">
+        <v>0.0</v>
+      </c>
+      <c r="N245" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14">
+      <c r="A246" t="s">
+        <v>14</v>
+      </c>
+      <c r="B246" t="s">
+        <v>15</v>
+      </c>
+      <c r="C246" t="s">
+        <v>16</v>
+      </c>
+      <c r="D246" t="s">
+        <v>27</v>
+      </c>
+      <c r="E246" t="s">
+        <v>18</v>
+      </c>
+      <c r="F246">
+        <v>25</v>
+      </c>
+      <c r="G246">
+        <v>7</v>
+      </c>
+      <c r="H246" t="s">
+        <v>19</v>
+      </c>
+      <c r="I246" t="s">
+        <v>69</v>
+      </c>
+      <c r="J246" t="s">
+        <v>21</v>
+      </c>
+      <c r="K246" t="s">
+        <v>22</v>
+      </c>
+      <c r="L246">
+        <v>41</v>
+      </c>
+      <c r="M246">
+        <v>0.0</v>
+      </c>
+      <c r="N246" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14">
+      <c r="A247" t="s">
+        <v>14</v>
+      </c>
+      <c r="B247" t="s">
+        <v>15</v>
+      </c>
+      <c r="C247" t="s">
+        <v>16</v>
+      </c>
+      <c r="D247" t="s">
+        <v>28</v>
+      </c>
+      <c r="E247" t="s">
+        <v>18</v>
+      </c>
+      <c r="F247">
+        <v>25</v>
+      </c>
+      <c r="G247">
+        <v>7</v>
+      </c>
+      <c r="H247" t="s">
+        <v>19</v>
+      </c>
+      <c r="I247" t="s">
+        <v>69</v>
+      </c>
+      <c r="J247" t="s">
+        <v>21</v>
+      </c>
+      <c r="K247" t="s">
+        <v>22</v>
+      </c>
+      <c r="L247">
+        <v>41</v>
+      </c>
+      <c r="M247">
+        <v>0.0</v>
+      </c>
+      <c r="N247" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14">
+      <c r="A248" t="s">
+        <v>14</v>
+      </c>
+      <c r="B248" t="s">
+        <v>15</v>
+      </c>
+      <c r="C248" t="s">
+        <v>16</v>
+      </c>
+      <c r="D248" t="s">
+        <v>17</v>
+      </c>
+      <c r="E248" t="s">
+        <v>18</v>
+      </c>
+      <c r="F248">
+        <v>25</v>
+      </c>
+      <c r="G248">
+        <v>7</v>
+      </c>
+      <c r="H248" t="s">
+        <v>19</v>
+      </c>
+      <c r="I248" t="s">
+        <v>70</v>
+      </c>
+      <c r="J248" t="s">
+        <v>21</v>
+      </c>
+      <c r="K248" t="s">
+        <v>22</v>
+      </c>
+      <c r="L248">
+        <v>42</v>
+      </c>
+      <c r="M248">
+        <v>23.0</v>
+      </c>
+      <c r="N248" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14">
+      <c r="A249" t="s">
+        <v>14</v>
+      </c>
+      <c r="B249" t="s">
+        <v>15</v>
+      </c>
+      <c r="C249" t="s">
+        <v>16</v>
+      </c>
+      <c r="D249" t="s">
+        <v>24</v>
+      </c>
+      <c r="E249" t="s">
+        <v>18</v>
+      </c>
+      <c r="F249">
+        <v>10</v>
+      </c>
+      <c r="G249">
+        <v>3</v>
+      </c>
+      <c r="H249" t="s">
+        <v>19</v>
+      </c>
+      <c r="I249" t="s">
+        <v>70</v>
+      </c>
+      <c r="J249" t="s">
+        <v>21</v>
+      </c>
+      <c r="K249" t="s">
+        <v>22</v>
+      </c>
+      <c r="L249">
+        <v>42</v>
+      </c>
+      <c r="M249">
+        <v>9.0</v>
+      </c>
+      <c r="N249" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14">
+      <c r="A250" t="s">
+        <v>14</v>
+      </c>
+      <c r="B250" t="s">
+        <v>15</v>
+      </c>
+      <c r="C250" t="s">
+        <v>16</v>
+      </c>
+      <c r="D250" t="s">
+        <v>25</v>
+      </c>
+      <c r="E250" t="s">
+        <v>18</v>
+      </c>
+      <c r="F250">
+        <v>10</v>
+      </c>
+      <c r="G250">
+        <v>3</v>
+      </c>
+      <c r="H250" t="s">
+        <v>19</v>
+      </c>
+      <c r="I250" t="s">
+        <v>70</v>
+      </c>
+      <c r="J250" t="s">
+        <v>21</v>
+      </c>
+      <c r="K250" t="s">
+        <v>22</v>
+      </c>
+      <c r="L250">
+        <v>42</v>
+      </c>
+      <c r="M250">
+        <v>9.0</v>
+      </c>
+      <c r="N250" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14">
+      <c r="A251" t="s">
+        <v>14</v>
+      </c>
+      <c r="B251" t="s">
+        <v>15</v>
+      </c>
+      <c r="C251" t="s">
+        <v>16</v>
+      </c>
+      <c r="D251" t="s">
+        <v>26</v>
+      </c>
+      <c r="E251" t="s">
+        <v>18</v>
+      </c>
+      <c r="F251">
+        <v>25</v>
+      </c>
+      <c r="G251">
+        <v>7</v>
+      </c>
+      <c r="H251" t="s">
+        <v>19</v>
+      </c>
+      <c r="I251" t="s">
+        <v>70</v>
+      </c>
+      <c r="J251" t="s">
+        <v>21</v>
+      </c>
+      <c r="K251" t="s">
+        <v>22</v>
+      </c>
+      <c r="L251">
+        <v>42</v>
+      </c>
+      <c r="M251">
+        <v>24.5</v>
+      </c>
+      <c r="N251" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14">
+      <c r="A252" t="s">
+        <v>14</v>
+      </c>
+      <c r="B252" t="s">
+        <v>15</v>
+      </c>
+      <c r="C252" t="s">
+        <v>16</v>
+      </c>
+      <c r="D252" t="s">
+        <v>27</v>
+      </c>
+      <c r="E252" t="s">
+        <v>18</v>
+      </c>
+      <c r="F252">
+        <v>25</v>
+      </c>
+      <c r="G252">
+        <v>7</v>
+      </c>
+      <c r="H252" t="s">
+        <v>19</v>
+      </c>
+      <c r="I252" t="s">
+        <v>70</v>
+      </c>
+      <c r="J252" t="s">
+        <v>21</v>
+      </c>
+      <c r="K252" t="s">
+        <v>22</v>
+      </c>
+      <c r="L252">
+        <v>42</v>
+      </c>
+      <c r="M252">
+        <v>24.0</v>
+      </c>
+      <c r="N252" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14">
+      <c r="A253" t="s">
+        <v>14</v>
+      </c>
+      <c r="B253" t="s">
+        <v>15</v>
+      </c>
+      <c r="C253" t="s">
+        <v>16</v>
+      </c>
+      <c r="D253" t="s">
+        <v>28</v>
+      </c>
+      <c r="E253" t="s">
+        <v>18</v>
+      </c>
+      <c r="F253">
+        <v>25</v>
+      </c>
+      <c r="G253">
+        <v>7</v>
+      </c>
+      <c r="H253" t="s">
+        <v>19</v>
+      </c>
+      <c r="I253" t="s">
+        <v>70</v>
+      </c>
+      <c r="J253" t="s">
+        <v>21</v>
+      </c>
+      <c r="K253" t="s">
+        <v>22</v>
+      </c>
+      <c r="L253">
+        <v>42</v>
+      </c>
+      <c r="M253">
+        <v>18.0</v>
+      </c>
+      <c r="N253" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
